--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,15 @@
     <t>['45+7', '61']</t>
   </si>
   <si>
+    <t>['60', '74', '87']</t>
+  </si>
+  <si>
+    <t>['25', '81']</t>
+  </si>
+  <si>
+    <t>['30', '54', '90+4', '90+7']</t>
+  </si>
+  <si>
     <t>['29', '81']</t>
   </si>
   <si>
@@ -818,6 +827,15 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['15', '45+2']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1614,7 +1632,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1805,7 +1823,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1996,7 +2014,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2468,7 +2486,7 @@
         <v>2.69</v>
       </c>
       <c r="AT7">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3038,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>1.15</v>
@@ -3142,7 +3160,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3333,7 +3351,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3420,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT12">
         <v>1.69</v>
@@ -3524,7 +3542,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -3715,7 +3733,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3802,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT14">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3993,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT15">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4097,7 +4115,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4187,7 +4205,7 @@
         <v>0.85</v>
       </c>
       <c r="AT16">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4288,7 +4306,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4479,7 +4497,7 @@
         <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4670,7 +4688,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4760,7 +4778,7 @@
         <v>2.15</v>
       </c>
       <c r="AT19">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU19">
         <v>1.42</v>
@@ -4861,7 +4879,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5434,7 +5452,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5625,7 +5643,7 @@
         <v>93</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>10</v>
@@ -5715,7 +5733,7 @@
         <v>1.69</v>
       </c>
       <c r="AT24">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU24">
         <v>2.53</v>
@@ -5816,7 +5834,7 @@
         <v>94</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5903,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU25">
         <v>1.73</v>
@@ -6007,7 +6025,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6097,7 +6115,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT26">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU26">
         <v>1.18</v>
@@ -6285,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1.69</v>
@@ -6476,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT28">
         <v>1.46</v>
@@ -6667,7 +6685,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT29">
         <v>0.71</v>
@@ -6962,7 +6980,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7535,7 +7553,7 @@
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7625,7 +7643,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT34">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU34">
         <v>1.28</v>
@@ -8386,10 +8404,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU38">
         <v>1.38</v>
@@ -8577,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.71</v>
@@ -8771,7 +8789,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT40">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU40">
         <v>1.32</v>
@@ -8872,7 +8890,7 @@
         <v>105</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9150,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
         <v>1.46</v>
@@ -9445,7 +9463,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9827,7 +9845,7 @@
         <v>108</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10018,7 +10036,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10108,7 +10126,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT47">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU47">
         <v>1.43</v>
@@ -10209,7 +10227,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10400,7 +10418,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10490,7 +10508,7 @@
         <v>2.08</v>
       </c>
       <c r="AT49">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10591,7 +10609,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>13</v>
@@ -10678,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT50">
         <v>1.38</v>
@@ -10782,7 +10800,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11060,10 +11078,10 @@
         <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU52">
         <v>1.86</v>
@@ -11251,7 +11269,7 @@
         <v>0.75</v>
       </c>
       <c r="AS53">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11636,7 +11654,7 @@
         <v>1.07</v>
       </c>
       <c r="AT55">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU55">
         <v>1.52</v>
@@ -11737,7 +11755,7 @@
         <v>114</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12119,7 +12137,7 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12310,7 +12328,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12397,7 +12415,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT59">
         <v>1.77</v>
@@ -12973,7 +12991,7 @@
         <v>2.08</v>
       </c>
       <c r="AT62">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU62">
         <v>1.36</v>
@@ -13074,7 +13092,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13164,7 +13182,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT63">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU63">
         <v>1.16</v>
@@ -13352,7 +13370,7 @@
         <v>1.75</v>
       </c>
       <c r="AS64">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT64">
         <v>1.08</v>
@@ -13647,7 +13665,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>8</v>
@@ -13734,7 +13752,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
         <v>1.38</v>
@@ -13838,7 +13856,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13928,7 +13946,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT67">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU67">
         <v>1.36</v>
@@ -14029,7 +14047,7 @@
         <v>94</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14411,7 +14429,7 @@
         <v>123</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14880,7 +14898,7 @@
         <v>1.4</v>
       </c>
       <c r="AS72">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>1.08</v>
@@ -14984,7 +15002,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15071,10 +15089,10 @@
         <v>3</v>
       </c>
       <c r="AS73">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT73">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU73">
         <v>1.48</v>
@@ -15262,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT74">
         <v>0.54</v>
@@ -15647,7 +15665,7 @@
         <v>2.08</v>
       </c>
       <c r="AT76">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU76">
         <v>1.36</v>
@@ -16029,7 +16047,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT78">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU78">
         <v>1.17</v>
@@ -16130,7 +16148,7 @@
         <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16411,7 +16429,7 @@
         <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU80">
         <v>1.52</v>
@@ -16894,7 +16912,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17085,7 +17103,7 @@
         <v>132</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17276,7 +17294,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17557,7 +17575,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT86">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU86">
         <v>1.12</v>
@@ -17658,7 +17676,7 @@
         <v>84</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17849,7 +17867,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2</v>
@@ -17936,10 +17954,10 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU88">
         <v>1.38</v>
@@ -18127,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>0.54</v>
@@ -18231,7 +18249,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18318,10 +18336,10 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU90">
         <v>1.85</v>
@@ -18509,7 +18527,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT91">
         <v>1.15</v>
@@ -18613,7 +18631,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -18700,10 +18718,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU92">
         <v>2.02</v>
@@ -18804,7 +18822,7 @@
         <v>84</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18995,7 +19013,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19186,7 +19204,7 @@
         <v>138</v>
       </c>
       <c r="P95" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19273,7 +19291,7 @@
         <v>0.17</v>
       </c>
       <c r="AS95">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT95">
         <v>0.54</v>
@@ -19464,10 +19482,10 @@
         <v>0.17</v>
       </c>
       <c r="AS96">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT96">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU96">
         <v>1.91</v>
@@ -19658,7 +19676,7 @@
         <v>1.69</v>
       </c>
       <c r="AT97">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU97">
         <v>1.63</v>
@@ -19846,7 +19864,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT98">
         <v>1.15</v>
@@ -20040,7 +20058,7 @@
         <v>2.08</v>
       </c>
       <c r="AT99">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU99">
         <v>1.38</v>
@@ -20422,7 +20440,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT101">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU101">
         <v>1.41</v>
@@ -20714,7 +20732,7 @@
         <v>105</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21096,7 +21114,7 @@
         <v>84</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21287,7 +21305,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21478,7 +21496,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21565,7 +21583,7 @@
         <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>1.69</v>
@@ -21756,7 +21774,7 @@
         <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT108">
         <v>1.46</v>
@@ -21950,7 +21968,7 @@
         <v>1.92</v>
       </c>
       <c r="AT109">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU109">
         <v>2.16</v>
@@ -22051,7 +22069,7 @@
         <v>144</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22138,10 +22156,10 @@
         <v>0.14</v>
       </c>
       <c r="AS110">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU110">
         <v>1.98</v>
@@ -22433,7 +22451,7 @@
         <v>84</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>8</v>
@@ -22520,7 +22538,7 @@
         <v>0.71</v>
       </c>
       <c r="AS112">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
         <v>1.15</v>
@@ -22624,7 +22642,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23860,7 +23878,7 @@
         <v>1.07</v>
       </c>
       <c r="AT119">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU119">
         <v>1.51</v>
@@ -24048,7 +24066,7 @@
         <v>0.75</v>
       </c>
       <c r="AS120">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT120">
         <v>0.71</v>
@@ -24239,10 +24257,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT121">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU121">
         <v>1.88</v>
@@ -24430,7 +24448,7 @@
         <v>1.88</v>
       </c>
       <c r="AS122">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT122">
         <v>1.69</v>
@@ -24534,7 +24552,7 @@
         <v>151</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24621,7 +24639,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT123">
         <v>1.46</v>
@@ -24815,7 +24833,7 @@
         <v>1.69</v>
       </c>
       <c r="AT124">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU124">
         <v>1.53</v>
@@ -25197,7 +25215,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU126">
         <v>2.08</v>
@@ -25298,7 +25316,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25489,7 +25507,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25680,7 +25698,7 @@
         <v>153</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25770,7 +25788,7 @@
         <v>1.07</v>
       </c>
       <c r="AT129">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU129">
         <v>1.44</v>
@@ -25871,7 +25889,7 @@
         <v>154</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25961,7 +25979,7 @@
         <v>2.69</v>
       </c>
       <c r="AT130">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU130">
         <v>1.97</v>
@@ -26340,7 +26358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT132">
         <v>1.08</v>
@@ -26444,7 +26462,7 @@
         <v>84</v>
       </c>
       <c r="P133" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26635,7 +26653,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27017,7 +27035,7 @@
         <v>157</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27104,10 +27122,10 @@
         <v>0.89</v>
       </c>
       <c r="AS136">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT136">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU136">
         <v>1.91</v>
@@ -27298,7 +27316,7 @@
         <v>2.15</v>
       </c>
       <c r="AT137">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU137">
         <v>1.58</v>
@@ -27486,7 +27504,7 @@
         <v>0.78</v>
       </c>
       <c r="AS138">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27590,7 +27608,7 @@
         <v>160</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27868,7 +27886,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT140">
         <v>0.71</v>
@@ -28163,7 +28181,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28444,7 +28462,7 @@
         <v>2.69</v>
       </c>
       <c r="AT143">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU143">
         <v>1.98</v>
@@ -28823,7 +28841,7 @@
         <v>2.1</v>
       </c>
       <c r="AS145">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT145">
         <v>1.77</v>
@@ -29014,7 +29032,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT146">
         <v>1.08</v>
@@ -29118,7 +29136,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -29208,7 +29226,7 @@
         <v>0.85</v>
       </c>
       <c r="AT147">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU147">
         <v>1.17</v>
@@ -29309,7 +29327,7 @@
         <v>165</v>
       </c>
       <c r="P148" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29399,7 +29417,7 @@
         <v>1.69</v>
       </c>
       <c r="AT148">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU148">
         <v>1.45</v>
@@ -29500,7 +29518,7 @@
         <v>166</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29587,7 +29605,7 @@
         <v>0.7</v>
       </c>
       <c r="AS149">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -29691,7 +29709,7 @@
         <v>90</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29778,7 +29796,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>1.38</v>
@@ -29882,7 +29900,7 @@
         <v>167</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>1</v>
@@ -30073,7 +30091,7 @@
         <v>168</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30545,7 +30563,7 @@
         <v>1.92</v>
       </c>
       <c r="AT154">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU154">
         <v>2</v>
@@ -30733,7 +30751,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT155">
         <v>1.08</v>
@@ -30924,7 +30942,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT156">
         <v>1.08</v>
@@ -31028,7 +31046,7 @@
         <v>171</v>
       </c>
       <c r="P157" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31309,7 +31327,7 @@
         <v>2.69</v>
       </c>
       <c r="AT158">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU158">
         <v>1.92</v>
@@ -31410,7 +31428,7 @@
         <v>173</v>
       </c>
       <c r="P159" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31497,10 +31515,10 @@
         <v>2.18</v>
       </c>
       <c r="AS159">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT159">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU159">
         <v>1.71</v>
@@ -31792,7 +31810,7 @@
         <v>174</v>
       </c>
       <c r="P161" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31882,7 +31900,7 @@
         <v>0.85</v>
       </c>
       <c r="AT161">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU161">
         <v>1.17</v>
@@ -31983,7 +32001,7 @@
         <v>175</v>
       </c>
       <c r="P162" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32365,7 +32383,7 @@
         <v>177</v>
       </c>
       <c r="P164" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32747,7 +32765,7 @@
         <v>142</v>
       </c>
       <c r="P166" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q166">
         <v>10</v>
@@ -32837,7 +32855,7 @@
         <v>2.15</v>
       </c>
       <c r="AT166">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU166">
         <v>1.65</v>
@@ -33025,7 +33043,7 @@
         <v>2</v>
       </c>
       <c r="AS167">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT167">
         <v>1.77</v>
@@ -33320,7 +33338,7 @@
         <v>180</v>
       </c>
       <c r="P169" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33407,10 +33425,10 @@
         <v>2.25</v>
       </c>
       <c r="AS169">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT169">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU169">
         <v>1.9</v>
@@ -33511,7 +33529,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33702,7 +33720,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33789,7 +33807,7 @@
         <v>1.09</v>
       </c>
       <c r="AS171">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT171">
         <v>1.08</v>
@@ -33893,7 +33911,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -33980,10 +33998,10 @@
         <v>2.33</v>
       </c>
       <c r="AS172">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT172">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AU172">
         <v>1.69</v>
@@ -34174,7 +34192,7 @@
         <v>0.85</v>
       </c>
       <c r="AT173">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AU173">
         <v>1.13</v>
@@ -34275,7 +34293,7 @@
         <v>184</v>
       </c>
       <c r="P174" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34362,7 +34380,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT174">
         <v>0.54</v>
@@ -34657,7 +34675,7 @@
         <v>186</v>
       </c>
       <c r="P176" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34848,7 +34866,7 @@
         <v>93</v>
       </c>
       <c r="P177" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -35039,7 +35057,7 @@
         <v>177</v>
       </c>
       <c r="P178" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q178">
         <v>10</v>
@@ -35129,7 +35147,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT178">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU178">
         <v>1.3</v>
@@ -35230,7 +35248,7 @@
         <v>84</v>
       </c>
       <c r="P179" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35994,7 +36012,7 @@
         <v>189</v>
       </c>
       <c r="P183" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36136,6 +36154,770 @@
       </c>
       <c r="BK183">
         <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5572951</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>76</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>190</v>
+      </c>
+      <c r="P184" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q184">
+        <v>6</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>9</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>5</v>
+      </c>
+      <c r="W184">
+        <v>1.44</v>
+      </c>
+      <c r="X184">
+        <v>2.67</v>
+      </c>
+      <c r="Y184">
+        <v>2.99</v>
+      </c>
+      <c r="Z184">
+        <v>1.36</v>
+      </c>
+      <c r="AA184">
+        <v>7.6</v>
+      </c>
+      <c r="AB184">
+        <v>1.07</v>
+      </c>
+      <c r="AC184">
+        <v>1.67</v>
+      </c>
+      <c r="AD184">
+        <v>3.6</v>
+      </c>
+      <c r="AE184">
+        <v>5.5</v>
+      </c>
+      <c r="AF184">
+        <v>1.01</v>
+      </c>
+      <c r="AG184">
+        <v>9.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.33</v>
+      </c>
+      <c r="AI184">
+        <v>3.1</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.8</v>
+      </c>
+      <c r="AL184">
+        <v>1.91</v>
+      </c>
+      <c r="AM184">
+        <v>1.8</v>
+      </c>
+      <c r="AN184">
+        <v>1.12</v>
+      </c>
+      <c r="AO184">
+        <v>1.22</v>
+      </c>
+      <c r="AP184">
+        <v>2.15</v>
+      </c>
+      <c r="AQ184">
+        <v>1.27</v>
+      </c>
+      <c r="AR184">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS184">
+        <v>1.33</v>
+      </c>
+      <c r="AT184">
+        <v>0.78</v>
+      </c>
+      <c r="AU184">
+        <v>1.64</v>
+      </c>
+      <c r="AV184">
+        <v>1.37</v>
+      </c>
+      <c r="AW184">
+        <v>3.01</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>8</v>
+      </c>
+      <c r="BI184">
+        <v>4</v>
+      </c>
+      <c r="BJ184">
+        <v>14</v>
+      </c>
+      <c r="BK184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5572948</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>74</v>
+      </c>
+      <c r="H185" t="s">
+        <v>68</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>153</v>
+      </c>
+      <c r="P185" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>6</v>
+      </c>
+      <c r="T185">
+        <v>4.33</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>2.48</v>
+      </c>
+      <c r="Y185">
+        <v>3.34</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>9.4</v>
+      </c>
+      <c r="AB185">
+        <v>1.04</v>
+      </c>
+      <c r="AC185">
+        <v>4.5</v>
+      </c>
+      <c r="AD185">
+        <v>3.2</v>
+      </c>
+      <c r="AE185">
+        <v>1.91</v>
+      </c>
+      <c r="AF185">
+        <v>1.05</v>
+      </c>
+      <c r="AG185">
+        <v>8.9</v>
+      </c>
+      <c r="AH185">
+        <v>1.37</v>
+      </c>
+      <c r="AI185">
+        <v>2.87</v>
+      </c>
+      <c r="AJ185">
+        <v>2.3</v>
+      </c>
+      <c r="AK185">
+        <v>1.6</v>
+      </c>
+      <c r="AL185">
+        <v>2</v>
+      </c>
+      <c r="AM185">
+        <v>1.73</v>
+      </c>
+      <c r="AN185">
+        <v>1.75</v>
+      </c>
+      <c r="AO185">
+        <v>1.32</v>
+      </c>
+      <c r="AP185">
+        <v>1.24</v>
+      </c>
+      <c r="AQ185">
+        <v>1.58</v>
+      </c>
+      <c r="AR185">
+        <v>2.27</v>
+      </c>
+      <c r="AS185">
+        <v>1.56</v>
+      </c>
+      <c r="AT185">
+        <v>2.22</v>
+      </c>
+      <c r="AU185">
+        <v>1.65</v>
+      </c>
+      <c r="AV185">
+        <v>1.47</v>
+      </c>
+      <c r="AW185">
+        <v>3.12</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>7</v>
+      </c>
+      <c r="BK185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5572949</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" t="s">
+        <v>67</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>191</v>
+      </c>
+      <c r="P186" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q186">
+        <v>6</v>
+      </c>
+      <c r="R186">
+        <v>3</v>
+      </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
+        <v>2.05</v>
+      </c>
+      <c r="V186">
+        <v>3.75</v>
+      </c>
+      <c r="W186">
+        <v>1.48</v>
+      </c>
+      <c r="X186">
+        <v>2.54</v>
+      </c>
+      <c r="Y186">
+        <v>3.28</v>
+      </c>
+      <c r="Z186">
+        <v>1.31</v>
+      </c>
+      <c r="AA186">
+        <v>8.4</v>
+      </c>
+      <c r="AB186">
+        <v>1.05</v>
+      </c>
+      <c r="AC186">
+        <v>2.2</v>
+      </c>
+      <c r="AD186">
+        <v>3.3</v>
+      </c>
+      <c r="AE186">
+        <v>3.5</v>
+      </c>
+      <c r="AF186">
+        <v>1.04</v>
+      </c>
+      <c r="AG186">
+        <v>7.4</v>
+      </c>
+      <c r="AH186">
+        <v>1.38</v>
+      </c>
+      <c r="AI186">
+        <v>2.71</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.7</v>
+      </c>
+      <c r="AL186">
+        <v>1.83</v>
+      </c>
+      <c r="AM186">
+        <v>1.83</v>
+      </c>
+      <c r="AN186">
+        <v>1.38</v>
+      </c>
+      <c r="AO186">
+        <v>1.34</v>
+      </c>
+      <c r="AP186">
+        <v>1.56</v>
+      </c>
+      <c r="AQ186">
+        <v>1.92</v>
+      </c>
+      <c r="AR186">
+        <v>2.04</v>
+      </c>
+      <c r="AS186">
+        <v>1.89</v>
+      </c>
+      <c r="AT186">
+        <v>2</v>
+      </c>
+      <c r="AU186">
+        <v>1.91</v>
+      </c>
+      <c r="AV186">
+        <v>1.69</v>
+      </c>
+      <c r="AW186">
+        <v>3.6</v>
+      </c>
+      <c r="AX186">
+        <v>1.64</v>
+      </c>
+      <c r="AY186">
+        <v>7.6</v>
+      </c>
+      <c r="AZ186">
+        <v>2.86</v>
+      </c>
+      <c r="BA186">
+        <v>1.36</v>
+      </c>
+      <c r="BB186">
+        <v>1.7</v>
+      </c>
+      <c r="BC186">
+        <v>2.15</v>
+      </c>
+      <c r="BD186">
+        <v>2.9</v>
+      </c>
+      <c r="BE186">
+        <v>4</v>
+      </c>
+      <c r="BF186">
+        <v>10</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>3</v>
+      </c>
+      <c r="BI186">
+        <v>4</v>
+      </c>
+      <c r="BJ186">
+        <v>13</v>
+      </c>
+      <c r="BK186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5572952</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>77</v>
+      </c>
+      <c r="H187" t="s">
+        <v>69</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>5</v>
+      </c>
+      <c r="O187" t="s">
+        <v>192</v>
+      </c>
+      <c r="P187" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q187">
+        <v>6</v>
+      </c>
+      <c r="R187">
+        <v>7</v>
+      </c>
+      <c r="S187">
+        <v>13</v>
+      </c>
+      <c r="T187">
+        <v>2.3</v>
+      </c>
+      <c r="U187">
+        <v>2.1</v>
+      </c>
+      <c r="V187">
+        <v>5</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>2.75</v>
+      </c>
+      <c r="Y187">
+        <v>2.85</v>
+      </c>
+      <c r="Z187">
+        <v>1.37</v>
+      </c>
+      <c r="AA187">
+        <v>7.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.08</v>
+      </c>
+      <c r="AC187">
+        <v>1.69</v>
+      </c>
+      <c r="AD187">
+        <v>3.5</v>
+      </c>
+      <c r="AE187">
+        <v>3.95</v>
+      </c>
+      <c r="AF187">
+        <v>1.06</v>
+      </c>
+      <c r="AG187">
+        <v>8.75</v>
+      </c>
+      <c r="AH187">
+        <v>1.3</v>
+      </c>
+      <c r="AI187">
+        <v>3.3</v>
+      </c>
+      <c r="AJ187">
+        <v>1.89</v>
+      </c>
+      <c r="AK187">
+        <v>1.66</v>
+      </c>
+      <c r="AL187">
+        <v>1.91</v>
+      </c>
+      <c r="AM187">
+        <v>1.8</v>
+      </c>
+      <c r="AN187">
+        <v>1.19</v>
+      </c>
+      <c r="AO187">
+        <v>1.25</v>
+      </c>
+      <c r="AP187">
+        <v>2.05</v>
+      </c>
+      <c r="AQ187">
+        <v>1.46</v>
+      </c>
+      <c r="AR187">
+        <v>0.46</v>
+      </c>
+      <c r="AS187">
+        <v>1.52</v>
+      </c>
+      <c r="AT187">
+        <v>0.44</v>
+      </c>
+      <c r="AU187">
+        <v>1.29</v>
+      </c>
+      <c r="AV187">
+        <v>1.23</v>
+      </c>
+      <c r="AW187">
+        <v>2.52</v>
+      </c>
+      <c r="AX187">
+        <v>1.51</v>
+      </c>
+      <c r="AY187">
+        <v>8.4</v>
+      </c>
+      <c r="AZ187">
+        <v>3.24</v>
+      </c>
+      <c r="BA187">
+        <v>1.24</v>
+      </c>
+      <c r="BB187">
+        <v>1.44</v>
+      </c>
+      <c r="BC187">
+        <v>1.73</v>
+      </c>
+      <c r="BD187">
+        <v>2.18</v>
+      </c>
+      <c r="BE187">
+        <v>2.85</v>
+      </c>
+      <c r="BF187">
+        <v>9</v>
+      </c>
+      <c r="BG187">
+        <v>6</v>
+      </c>
+      <c r="BH187">
+        <v>6</v>
+      </c>
+      <c r="BI187">
+        <v>6</v>
+      </c>
+      <c r="BJ187">
+        <v>15</v>
+      </c>
+      <c r="BK187">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.92</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.57</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT15" t="n">
         <v>0.21</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU18" t="n">
         <v>1.66</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT19" t="n">
         <v>2.07</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU20" t="n">
         <v>1.31</v>
@@ -4963,7 +4963,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU22" t="n">
         <v>1.26</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>1.57</v>
@@ -6384,7 +6384,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -6587,7 +6587,7 @@
         <v>0.86</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU30" t="n">
         <v>1.12</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU31" t="n">
         <v>1.52</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT33" t="n">
         <v>2.07</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU34" t="n">
         <v>1.18</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT37" t="n">
         <v>1.07</v>
@@ -8208,7 +8208,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
         <v>0.86</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU39" t="n">
         <v>2.06</v>
@@ -9023,7 +9023,7 @@
         <v>1.57</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU42" t="n">
         <v>2.23</v>
@@ -9429,7 +9429,7 @@
         <v>0.86</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.35</v>
@@ -9835,7 +9835,7 @@
         <v>1.07</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU46" t="n">
         <v>1.32</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT47" t="n">
         <v>2.29</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT49" t="n">
         <v>2.07</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU53" t="n">
         <v>2.08</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT54" t="n">
         <v>1.69</v>
@@ -11865,7 +11865,7 @@
         <v>1.92</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU56" t="n">
         <v>2.03</v>
@@ -12268,10 +12268,10 @@
         <v>1.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -12471,10 +12471,10 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT62" t="n">
         <v>2.29</v>
@@ -13689,10 +13689,10 @@
         <v>0.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -14301,7 +14301,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.89</v>
@@ -14504,7 +14504,7 @@
         <v>1.92</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU69" t="n">
         <v>1.98</v>
@@ -14704,7 +14704,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT70" t="n">
         <v>1.69</v>
@@ -15516,7 +15516,7 @@
         <v>3</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT74" t="n">
         <v>2.07</v>
@@ -15922,7 +15922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT76" t="n">
         <v>0.21</v>
@@ -16128,7 +16128,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU77" t="n">
         <v>2.28</v>
@@ -16531,10 +16531,10 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU79" t="n">
         <v>1.18</v>
@@ -17140,10 +17140,10 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU82" t="n">
         <v>1.44</v>
@@ -17752,7 +17752,7 @@
         <v>1.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU85" t="n">
         <v>2.07</v>
@@ -18358,7 +18358,7 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT88" t="n">
         <v>2.29</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT98" t="n">
         <v>1.07</v>
@@ -20591,7 +20591,7 @@
         <v>1.14</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT99" t="n">
         <v>0.86</v>
@@ -20797,7 +20797,7 @@
         <v>0.85</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU100" t="n">
         <v>1.17</v>
@@ -21203,7 +21203,7 @@
         <v>2.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU102" t="n">
         <v>2.07</v>
@@ -21403,7 +21403,7 @@
         <v>1.43</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT103" t="n">
         <v>1.08</v>
@@ -21606,7 +21606,7 @@
         <v>1.29</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT104" t="n">
         <v>1.38</v>
@@ -21812,7 +21812,7 @@
         <v>1.07</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU105" t="n">
         <v>1.56</v>
@@ -22012,7 +22012,7 @@
         <v>1.71</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
         <v>1.69</v>
@@ -22218,7 +22218,7 @@
         <v>0.86</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -23639,7 +23639,7 @@
         <v>0.85</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU114" t="n">
         <v>1.16</v>
@@ -23842,7 +23842,7 @@
         <v>0.86</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU115" t="n">
         <v>1.29</v>
@@ -24042,7 +24042,7 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT116" t="n">
         <v>0.71</v>
@@ -24248,7 +24248,7 @@
         <v>2.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24448,7 +24448,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT118" t="n">
         <v>1.08</v>
@@ -24854,10 +24854,10 @@
         <v>0.75</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU120" t="n">
         <v>1.34</v>
@@ -26278,7 +26278,7 @@
         <v>0.85</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU127" t="n">
         <v>1.22</v>
@@ -26478,7 +26478,7 @@
         <v>0.22</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT128" t="n">
         <v>0.71</v>
@@ -27087,7 +27087,7 @@
         <v>1.11</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT131" t="n">
         <v>1.08</v>
@@ -27293,7 +27293,7 @@
         <v>2.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -28305,7 +28305,7 @@
         <v>0.22</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT137" t="n">
         <v>0.21</v>
@@ -28508,10 +28508,10 @@
         <v>0.78</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -28917,7 +28917,7 @@
         <v>1.57</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29117,7 +29117,7 @@
         <v>0.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT141" t="n">
         <v>0.71</v>
@@ -29320,7 +29320,7 @@
         <v>0.9</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT142" t="n">
         <v>1.07</v>
@@ -29932,7 +29932,7 @@
         <v>2.07</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU145" t="n">
         <v>1.77</v>
@@ -30132,10 +30132,10 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU146" t="n">
         <v>1.33</v>
@@ -30744,7 +30744,7 @@
         <v>1.57</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU149" t="n">
         <v>1.69</v>
@@ -31147,7 +31147,7 @@
         <v>1.3</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT151" t="n">
         <v>1.57</v>
@@ -31556,7 +31556,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU153" t="n">
         <v>1.32</v>
@@ -31962,7 +31962,7 @@
         <v>2</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU155" t="n">
         <v>1.91</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT156" t="n">
         <v>1.08</v>
@@ -32365,7 +32365,7 @@
         <v>1.09</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT157" t="n">
         <v>1.07</v>
@@ -33383,7 +33383,7 @@
         <v>1.07</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33786,7 +33786,7 @@
         <v>1.18</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT164" t="n">
         <v>1.57</v>
@@ -34192,7 +34192,7 @@
         <v>0.73</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT166" t="n">
         <v>0.86</v>
@@ -34398,7 +34398,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU167" t="n">
         <v>1.37</v>
@@ -34601,7 +34601,7 @@
         <v>1.57</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -35210,7 +35210,7 @@
         <v>1.57</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT174" t="n">
         <v>0.71</v>
@@ -36019,7 +36019,7 @@
         <v>1.83</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT175" t="n">
         <v>1.69</v>
@@ -36225,7 +36225,7 @@
         <v>2.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU176" t="n">
         <v>2.01</v>
@@ -36428,7 +36428,7 @@
         <v>1.07</v>
       </c>
       <c r="AT177" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU177" t="n">
         <v>1.46</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT178" t="n">
         <v>0.86</v>
@@ -37034,7 +37034,7 @@
         <v>1.5</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT180" t="n">
         <v>1.38</v>
@@ -37443,7 +37443,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU182" t="n">
         <v>1.39</v>
@@ -37646,7 +37646,7 @@
         <v>1.07</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU183" t="n">
         <v>1.45</v>
@@ -38049,10 +38049,10 @@
         <v>2.27</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -38252,7 +38252,7 @@
         <v>2.04</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AT186" t="n">
         <v>2</v>
@@ -38455,10 +38455,10 @@
         <v>0.46</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="AU187" t="n">
         <v>1.29</v>
@@ -38658,7 +38658,7 @@
         <v>0.62</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT188" t="n">
         <v>0.7</v>
@@ -38864,7 +38864,7 @@
         <v>2.11</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AU189" t="n">
         <v>1.99</v>
@@ -39119,6 +39119,818 @@
       </c>
       <c r="BK190" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5613660</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>APOEL</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Paphos</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>13</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5613664</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Akritas</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Enosis</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['55', '76']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['64', '72']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>3</v>
+      </c>
+      <c r="S192" t="n">
+        <v>7</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5613661</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Apollon</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Omonia Nicosia</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>3</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['14', '45', '84']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>5</v>
+      </c>
+      <c r="R193" t="n">
+        <v>7</v>
+      </c>
+      <c r="S193" t="n">
+        <v>12</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5613665</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Nea Salamis</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>AEL</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>3</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['22', '79']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['21', '38', '46']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>5</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -316,10 +316,10 @@
     <t>['14', '45+2', '81', '90+4']</t>
   </si>
   <si>
-    <t>['78', '83']</t>
+    <t>['45+2']</t>
   </si>
   <si>
-    <t>['45+2']</t>
+    <t>['78', '83']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -418,10 +418,10 @@
     <t>['30', '45+2']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['61']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['47']</t>
   </si>
   <si>
     <t>['23', '56', '68', '86']</t>
@@ -556,10 +556,10 @@
     <t>['8', '14']</t>
   </si>
   <si>
-    <t>['55', '75', '85']</t>
+    <t>['70']</t>
   </si>
   <si>
-    <t>['70']</t>
+    <t>['55', '75', '85']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -718,10 +718,10 @@
     <t>['45']</t>
   </si>
   <si>
-    <t>['44', '90+1']</t>
+    <t>['55', '78']</t>
   </si>
   <si>
-    <t>['55', '78']</t>
+    <t>['44', '90+1']</t>
   </si>
   <si>
     <t>['29', '68']</t>
@@ -733,10 +733,10 @@
     <t>['29', '48']</t>
   </si>
   <si>
-    <t>['60']</t>
+    <t>['15', '45+1']</t>
   </si>
   <si>
-    <t>['15', '45+1']</t>
+    <t>['60']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -6771,7 +6771,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2794178</v>
+        <v>2794176</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -6786,10 +6786,10 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6801,148 +6801,148 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T30">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U30">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="W30">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="Y30">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="Z30">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AA30">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AB30">
         <v>1.06</v>
       </c>
       <c r="AC30">
-        <v>4.56</v>
+        <v>2.35</v>
       </c>
       <c r="AD30">
-        <v>3.71</v>
+        <v>3.29</v>
       </c>
       <c r="AE30">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="AF30">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AG30">
-        <v>8.6</v>
+        <v>7.75</v>
       </c>
       <c r="AH30">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AI30">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
       <c r="AJ30">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AK30">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AL30">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AM30">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AN30">
+        <v>1.36</v>
+      </c>
+      <c r="AO30">
+        <v>1.32</v>
+      </c>
+      <c r="AP30">
+        <v>1.58</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>2</v>
+      </c>
+      <c r="AS30">
+        <v>2.15</v>
+      </c>
+      <c r="AT30">
+        <v>1.71</v>
+      </c>
+      <c r="AU30">
+        <v>1.52</v>
+      </c>
+      <c r="AV30">
+        <v>1.76</v>
+      </c>
+      <c r="AW30">
+        <v>3.28</v>
+      </c>
+      <c r="AX30">
         <v>2.02</v>
       </c>
-      <c r="AO30">
-        <v>1.25</v>
-      </c>
-      <c r="AP30">
-        <v>1.16</v>
-      </c>
-      <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>0.86</v>
-      </c>
-      <c r="AT30">
-        <v>0.93</v>
-      </c>
-      <c r="AU30">
-        <v>1.12</v>
-      </c>
-      <c r="AV30">
-        <v>1.2</v>
-      </c>
-      <c r="AW30">
-        <v>2.32</v>
-      </c>
-      <c r="AX30">
-        <v>3.07</v>
-      </c>
       <c r="AY30">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AZ30">
-        <v>1.58</v>
+        <v>2.13</v>
       </c>
       <c r="BA30">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="BB30">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="BC30">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="BD30">
-        <v>3.64</v>
+        <v>2.84</v>
       </c>
       <c r="BE30">
         <v>0</v>
       </c>
       <c r="BF30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH30">
         <v>10</v>
@@ -6951,10 +6951,10 @@
         <v>5</v>
       </c>
       <c r="BJ30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BK30">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:63">
@@ -6962,7 +6962,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2794176</v>
+        <v>2794178</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -6977,10 +6977,10 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6992,148 +6992,148 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V31">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X31">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="Y31">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="Z31">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AA31">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AB31">
         <v>1.06</v>
       </c>
       <c r="AC31">
-        <v>2.35</v>
+        <v>4.56</v>
       </c>
       <c r="AD31">
-        <v>3.29</v>
+        <v>3.71</v>
       </c>
       <c r="AE31">
-        <v>2.98</v>
+        <v>1.74</v>
       </c>
       <c r="AF31">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AG31">
-        <v>7.75</v>
+        <v>8.6</v>
       </c>
       <c r="AH31">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AI31">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="AJ31">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AK31">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="AL31">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AM31">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AN31">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="AO31">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
+        <v>1.16</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0.86</v>
+      </c>
+      <c r="AT31">
+        <v>0.93</v>
+      </c>
+      <c r="AU31">
+        <v>1.12</v>
+      </c>
+      <c r="AV31">
+        <v>1.2</v>
+      </c>
+      <c r="AW31">
+        <v>2.32</v>
+      </c>
+      <c r="AX31">
+        <v>3.07</v>
+      </c>
+      <c r="AY31">
+        <v>7.3</v>
+      </c>
+      <c r="AZ31">
         <v>1.58</v>
       </c>
-      <c r="AQ31">
-        <v>3</v>
-      </c>
-      <c r="AR31">
-        <v>2</v>
-      </c>
-      <c r="AS31">
-        <v>2.15</v>
-      </c>
-      <c r="AT31">
-        <v>1.71</v>
-      </c>
-      <c r="AU31">
-        <v>1.52</v>
-      </c>
-      <c r="AV31">
-        <v>1.76</v>
-      </c>
-      <c r="AW31">
-        <v>3.28</v>
-      </c>
-      <c r="AX31">
-        <v>2.02</v>
-      </c>
-      <c r="AY31">
-        <v>7.1</v>
-      </c>
-      <c r="AZ31">
-        <v>2.13</v>
-      </c>
       <c r="BA31">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="BB31">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="BC31">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="BD31">
-        <v>2.84</v>
+        <v>3.64</v>
       </c>
       <c r="BE31">
         <v>0</v>
       </c>
       <c r="BF31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH31">
         <v>10</v>
@@ -7142,10 +7142,10 @@
         <v>5</v>
       </c>
       <c r="BJ31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK31">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -7344,7 +7344,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2794174</v>
+        <v>2794172</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -7359,175 +7359,175 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="Q33">
         <v>10</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33">
+        <v>14</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2.2</v>
+      </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>1.43</v>
+      </c>
+      <c r="X33">
+        <v>2.6</v>
+      </c>
+      <c r="Y33">
+        <v>2.95</v>
+      </c>
+      <c r="Z33">
+        <v>1.35</v>
+      </c>
+      <c r="AA33">
+        <v>7.75</v>
+      </c>
+      <c r="AB33">
+        <v>1.07</v>
+      </c>
+      <c r="AC33">
+        <v>1.65</v>
+      </c>
+      <c r="AD33">
+        <v>3.5</v>
+      </c>
+      <c r="AE33">
+        <v>4.5</v>
+      </c>
+      <c r="AF33">
+        <v>1.02</v>
+      </c>
+      <c r="AG33">
+        <v>9</v>
+      </c>
+      <c r="AH33">
+        <v>1.27</v>
+      </c>
+      <c r="AI33">
+        <v>3.28</v>
+      </c>
+      <c r="AJ33">
+        <v>1.95</v>
+      </c>
+      <c r="AK33">
+        <v>1.85</v>
+      </c>
+      <c r="AL33">
+        <v>1.87</v>
+      </c>
+      <c r="AM33">
+        <v>1.83</v>
+      </c>
+      <c r="AN33">
+        <v>1.15</v>
+      </c>
+      <c r="AO33">
+        <v>1.23</v>
+      </c>
+      <c r="AP33">
+        <v>2.11</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>0.5</v>
+      </c>
+      <c r="AS33">
+        <v>2.07</v>
+      </c>
+      <c r="AT33">
+        <v>1.23</v>
+      </c>
+      <c r="AU33">
+        <v>1.18</v>
+      </c>
+      <c r="AV33">
+        <v>0.77</v>
+      </c>
+      <c r="AW33">
+        <v>1.95</v>
+      </c>
+      <c r="AX33">
+        <v>1.33</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>4.5</v>
+      </c>
+      <c r="BA33">
+        <v>1.38</v>
+      </c>
+      <c r="BB33">
+        <v>1.7</v>
+      </c>
+      <c r="BC33">
+        <v>2.15</v>
+      </c>
+      <c r="BD33">
+        <v>2.87</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>4</v>
+      </c>
+      <c r="BG33">
+        <v>2</v>
+      </c>
+      <c r="BH33">
+        <v>9</v>
+      </c>
+      <c r="BI33">
+        <v>2</v>
+      </c>
+      <c r="BJ33">
         <v>13</v>
       </c>
-      <c r="T33">
-        <v>4.75</v>
-      </c>
-      <c r="U33">
-        <v>2.05</v>
-      </c>
-      <c r="V33">
-        <v>2.4</v>
-      </c>
-      <c r="W33">
-        <v>1.44</v>
-      </c>
-      <c r="X33">
-        <v>2.55</v>
-      </c>
-      <c r="Y33">
-        <v>3</v>
-      </c>
-      <c r="Z33">
-        <v>1.33</v>
-      </c>
-      <c r="AA33">
-        <v>8</v>
-      </c>
-      <c r="AB33">
-        <v>1.06</v>
-      </c>
-      <c r="AC33">
+      <c r="BK33">
         <v>4</v>
-      </c>
-      <c r="AD33">
-        <v>3.4</v>
-      </c>
-      <c r="AE33">
-        <v>1.73</v>
-      </c>
-      <c r="AF33">
-        <v>1.03</v>
-      </c>
-      <c r="AG33">
-        <v>8</v>
-      </c>
-      <c r="AH33">
-        <v>1.33</v>
-      </c>
-      <c r="AI33">
-        <v>2.91</v>
-      </c>
-      <c r="AJ33">
-        <v>2.1</v>
-      </c>
-      <c r="AK33">
-        <v>1.7</v>
-      </c>
-      <c r="AL33">
-        <v>1.98</v>
-      </c>
-      <c r="AM33">
-        <v>1.74</v>
-      </c>
-      <c r="AN33">
-        <v>2.2</v>
-      </c>
-      <c r="AO33">
-        <v>1.24</v>
-      </c>
-      <c r="AP33">
-        <v>1.12</v>
-      </c>
-      <c r="AQ33">
-        <v>1.5</v>
-      </c>
-      <c r="AR33">
-        <v>3</v>
-      </c>
-      <c r="AS33">
-        <v>0.71</v>
-      </c>
-      <c r="AT33">
-        <v>2.07</v>
-      </c>
-      <c r="AU33">
-        <v>1.28</v>
-      </c>
-      <c r="AV33">
-        <v>1.15</v>
-      </c>
-      <c r="AW33">
-        <v>2.43</v>
-      </c>
-      <c r="AX33">
-        <v>4.02</v>
-      </c>
-      <c r="AY33">
-        <v>8.5</v>
-      </c>
-      <c r="AZ33">
-        <v>1.4</v>
-      </c>
-      <c r="BA33">
-        <v>1.57</v>
-      </c>
-      <c r="BB33">
-        <v>2.03</v>
-      </c>
-      <c r="BC33">
-        <v>2.67</v>
-      </c>
-      <c r="BD33">
-        <v>3.74</v>
-      </c>
-      <c r="BE33">
-        <v>0</v>
-      </c>
-      <c r="BF33">
-        <v>6</v>
-      </c>
-      <c r="BG33">
-        <v>6</v>
-      </c>
-      <c r="BH33">
-        <v>8</v>
-      </c>
-      <c r="BI33">
-        <v>3</v>
-      </c>
-      <c r="BJ33">
-        <v>14</v>
-      </c>
-      <c r="BK33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7535,7 +7535,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2794172</v>
+        <v>2794174</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -7550,175 +7550,175 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
         <v>84</v>
       </c>
       <c r="P34" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>10</v>
       </c>
       <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>13</v>
+      </c>
+      <c r="T34">
+        <v>4.75</v>
+      </c>
+      <c r="U34">
+        <v>2.05</v>
+      </c>
+      <c r="V34">
+        <v>2.4</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>2.55</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34">
+        <v>1.33</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
+      <c r="AB34">
+        <v>1.06</v>
+      </c>
+      <c r="AC34">
         <v>4</v>
       </c>
-      <c r="S34">
+      <c r="AD34">
+        <v>3.4</v>
+      </c>
+      <c r="AE34">
+        <v>1.73</v>
+      </c>
+      <c r="AF34">
+        <v>1.03</v>
+      </c>
+      <c r="AG34">
+        <v>8</v>
+      </c>
+      <c r="AH34">
+        <v>1.33</v>
+      </c>
+      <c r="AI34">
+        <v>2.91</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.7</v>
+      </c>
+      <c r="AL34">
+        <v>1.98</v>
+      </c>
+      <c r="AM34">
+        <v>1.74</v>
+      </c>
+      <c r="AN34">
+        <v>2.2</v>
+      </c>
+      <c r="AO34">
+        <v>1.24</v>
+      </c>
+      <c r="AP34">
+        <v>1.12</v>
+      </c>
+      <c r="AQ34">
+        <v>1.5</v>
+      </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>0.71</v>
+      </c>
+      <c r="AT34">
+        <v>2.07</v>
+      </c>
+      <c r="AU34">
+        <v>1.28</v>
+      </c>
+      <c r="AV34">
+        <v>1.15</v>
+      </c>
+      <c r="AW34">
+        <v>2.43</v>
+      </c>
+      <c r="AX34">
+        <v>4.02</v>
+      </c>
+      <c r="AY34">
+        <v>8.5</v>
+      </c>
+      <c r="AZ34">
+        <v>1.4</v>
+      </c>
+      <c r="BA34">
+        <v>1.57</v>
+      </c>
+      <c r="BB34">
+        <v>2.03</v>
+      </c>
+      <c r="BC34">
+        <v>2.67</v>
+      </c>
+      <c r="BD34">
+        <v>3.74</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>6</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>8</v>
+      </c>
+      <c r="BI34">
+        <v>3</v>
+      </c>
+      <c r="BJ34">
         <v>14</v>
       </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>2.2</v>
-      </c>
-      <c r="V34">
-        <v>5</v>
-      </c>
-      <c r="W34">
-        <v>1.43</v>
-      </c>
-      <c r="X34">
-        <v>2.6</v>
-      </c>
-      <c r="Y34">
-        <v>2.95</v>
-      </c>
-      <c r="Z34">
-        <v>1.35</v>
-      </c>
-      <c r="AA34">
-        <v>7.75</v>
-      </c>
-      <c r="AB34">
-        <v>1.07</v>
-      </c>
-      <c r="AC34">
-        <v>1.65</v>
-      </c>
-      <c r="AD34">
-        <v>3.5</v>
-      </c>
-      <c r="AE34">
-        <v>4.5</v>
-      </c>
-      <c r="AF34">
-        <v>1.02</v>
-      </c>
-      <c r="AG34">
+      <c r="BK34">
         <v>9</v>
-      </c>
-      <c r="AH34">
-        <v>1.27</v>
-      </c>
-      <c r="AI34">
-        <v>3.28</v>
-      </c>
-      <c r="AJ34">
-        <v>1.95</v>
-      </c>
-      <c r="AK34">
-        <v>1.85</v>
-      </c>
-      <c r="AL34">
-        <v>1.87</v>
-      </c>
-      <c r="AM34">
-        <v>1.83</v>
-      </c>
-      <c r="AN34">
-        <v>1.15</v>
-      </c>
-      <c r="AO34">
-        <v>1.23</v>
-      </c>
-      <c r="AP34">
-        <v>2.11</v>
-      </c>
-      <c r="AQ34">
-        <v>0.5</v>
-      </c>
-      <c r="AR34">
-        <v>0.5</v>
-      </c>
-      <c r="AS34">
-        <v>2.07</v>
-      </c>
-      <c r="AT34">
-        <v>1.23</v>
-      </c>
-      <c r="AU34">
-        <v>1.18</v>
-      </c>
-      <c r="AV34">
-        <v>0.77</v>
-      </c>
-      <c r="AW34">
-        <v>1.95</v>
-      </c>
-      <c r="AX34">
-        <v>1.33</v>
-      </c>
-      <c r="AY34">
-        <v>10</v>
-      </c>
-      <c r="AZ34">
-        <v>4.5</v>
-      </c>
-      <c r="BA34">
-        <v>1.38</v>
-      </c>
-      <c r="BB34">
-        <v>1.7</v>
-      </c>
-      <c r="BC34">
-        <v>2.15</v>
-      </c>
-      <c r="BD34">
-        <v>2.87</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
-      </c>
-      <c r="BF34">
-        <v>4</v>
-      </c>
-      <c r="BG34">
-        <v>2</v>
-      </c>
-      <c r="BH34">
-        <v>9</v>
-      </c>
-      <c r="BI34">
-        <v>2</v>
-      </c>
-      <c r="BJ34">
-        <v>13</v>
-      </c>
-      <c r="BK34">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:63">
@@ -7726,7 +7726,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2794177</v>
+        <v>2794173</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -7741,28 +7741,28 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
         <v>100</v>
@@ -7771,124 +7771,124 @@
         <v>84</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35">
         <v>8</v>
       </c>
       <c r="T35">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="W35">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AA35">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB35">
         <v>1.06</v>
       </c>
       <c r="AC35">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="AD35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE35">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AF35">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG35">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AH35">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI35">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="AJ35">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AK35">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AL35">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AM35">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO35">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.85</v>
+        <v>1.07</v>
       </c>
       <c r="AT35">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="AU35">
-        <v>0.78</v>
+        <v>1.27</v>
       </c>
       <c r="AV35">
-        <v>1.61</v>
+        <v>0.99</v>
       </c>
       <c r="AW35">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="AX35">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="AY35">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AZ35">
+        <v>2.28</v>
+      </c>
+      <c r="BA35">
+        <v>1.41</v>
+      </c>
+      <c r="BB35">
         <v>1.76</v>
       </c>
-      <c r="BA35">
-        <v>1.47</v>
-      </c>
-      <c r="BB35">
-        <v>1.85</v>
-      </c>
       <c r="BC35">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="BD35">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="BE35">
         <v>0</v>
@@ -7897,19 +7897,19 @@
         <v>5</v>
       </c>
       <c r="BG35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK35">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:63">
@@ -7917,7 +7917,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2794173</v>
+        <v>2794177</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -7932,28 +7932,28 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
         <v>101</v>
@@ -7962,124 +7962,124 @@
         <v>84</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36">
         <v>8</v>
       </c>
       <c r="T36">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="W36">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z36">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AA36">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB36">
         <v>1.06</v>
       </c>
       <c r="AC36">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="AD36">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE36">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AF36">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG36">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AH36">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AI36">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="AJ36">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK36">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AL36">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AM36">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AN36">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP36">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AT36">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="AU36">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
       <c r="AV36">
-        <v>0.99</v>
+        <v>1.61</v>
       </c>
       <c r="AW36">
-        <v>2.26</v>
+        <v>2.39</v>
       </c>
       <c r="AX36">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="AY36">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AZ36">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="BA36">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="BB36">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="BC36">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="BD36">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="BE36">
         <v>0</v>
@@ -8088,19 +8088,19 @@
         <v>5</v>
       </c>
       <c r="BG36">
+        <v>3</v>
+      </c>
+      <c r="BH36">
+        <v>2</v>
+      </c>
+      <c r="BI36">
         <v>4</v>
       </c>
-      <c r="BH36">
-        <v>5</v>
-      </c>
-      <c r="BI36">
+      <c r="BJ36">
         <v>7</v>
       </c>
-      <c r="BJ36">
-        <v>10</v>
-      </c>
       <c r="BK36">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:63">
@@ -9063,7 +9063,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2794185</v>
+        <v>2794184</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -9078,34 +9078,34 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9117,19 +9117,19 @@
         <v>11</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U42">
         <v>2</v>
       </c>
       <c r="V42">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X42">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y42">
         <v>3.1</v>
@@ -9144,13 +9144,13 @@
         <v>1.06</v>
       </c>
       <c r="AC42">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AD42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE42">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="AF42">
         <v>1.08</v>
@@ -9159,10 +9159,10 @@
         <v>7</v>
       </c>
       <c r="AH42">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AI42">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AJ42">
         <v>2.2</v>
@@ -9177,76 +9177,76 @@
         <v>1.83</v>
       </c>
       <c r="AN42">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="AO42">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AP42">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS42">
         <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AU42">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="AV42">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="AW42">
-        <v>3.62</v>
+        <v>3.71</v>
       </c>
       <c r="AX42">
-        <v>2.28</v>
+        <v>1.86</v>
       </c>
       <c r="AY42">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AZ42">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="BA42">
+        <v>1.29</v>
+      </c>
+      <c r="BB42">
         <v>1.53</v>
       </c>
-      <c r="BB42">
+      <c r="BC42">
         <v>1.95</v>
       </c>
-      <c r="BC42">
-        <v>2.64</v>
-      </c>
       <c r="BD42">
-        <v>3.58</v>
+        <v>2.54</v>
       </c>
       <c r="BE42">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="BF42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG42">
         <v>4</v>
       </c>
       <c r="BH42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -9254,7 +9254,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2794184</v>
+        <v>2794185</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -9269,34 +9269,34 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43" t="s">
+        <v>106</v>
+      </c>
+      <c r="P43" t="s">
         <v>84</v>
-      </c>
-      <c r="P43" t="s">
-        <v>127</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9308,19 +9308,19 @@
         <v>11</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
         <v>2</v>
       </c>
       <c r="V43">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="W43">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X43">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y43">
         <v>3.1</v>
@@ -9335,13 +9335,13 @@
         <v>1.06</v>
       </c>
       <c r="AC43">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AD43">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE43">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="AF43">
         <v>1.08</v>
@@ -9350,10 +9350,10 @@
         <v>7</v>
       </c>
       <c r="AH43">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI43">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AJ43">
         <v>2.2</v>
@@ -9368,76 +9368,76 @@
         <v>1.83</v>
       </c>
       <c r="AN43">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AO43">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AP43">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS43">
         <v>1.57</v>
       </c>
       <c r="AT43">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="AU43">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="AV43">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AW43">
-        <v>3.71</v>
+        <v>3.62</v>
       </c>
       <c r="AX43">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="AY43">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AZ43">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="BA43">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="BB43">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="BC43">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="BD43">
-        <v>2.54</v>
+        <v>3.58</v>
       </c>
       <c r="BE43">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="BF43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG43">
         <v>4</v>
       </c>
       <c r="BH43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK43">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -9678,7 +9678,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14984,7 +14984,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2794218</v>
+        <v>2794219</v>
       </c>
       <c r="C73" t="s">
         <v>63</v>
@@ -14999,175 +14999,175 @@
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <v>4</v>
       </c>
       <c r="O73" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="Q73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T73">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="U73">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="V73">
+        <v>2.38</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.63</v>
+      </c>
+      <c r="Y73">
+        <v>3.25</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>9</v>
+      </c>
+      <c r="AB73">
+        <v>1.07</v>
+      </c>
+      <c r="AC73">
+        <v>5</v>
+      </c>
+      <c r="AD73">
+        <v>3.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.75</v>
+      </c>
+      <c r="AF73">
+        <v>1.07</v>
+      </c>
+      <c r="AG73">
+        <v>7.5</v>
+      </c>
+      <c r="AH73">
+        <v>1.36</v>
+      </c>
+      <c r="AI73">
+        <v>3</v>
+      </c>
+      <c r="AJ73">
+        <v>2.15</v>
+      </c>
+      <c r="AK73">
+        <v>1.67</v>
+      </c>
+      <c r="AL73">
+        <v>2.1</v>
+      </c>
+      <c r="AM73">
+        <v>1.67</v>
+      </c>
+      <c r="AN73">
+        <v>1.72</v>
+      </c>
+      <c r="AO73">
+        <v>1.27</v>
+      </c>
+      <c r="AP73">
+        <v>1.23</v>
+      </c>
+      <c r="AQ73">
+        <v>1.75</v>
+      </c>
+      <c r="AR73">
+        <v>3</v>
+      </c>
+      <c r="AS73">
+        <v>1.53</v>
+      </c>
+      <c r="AT73">
+        <v>2.07</v>
+      </c>
+      <c r="AU73">
+        <v>1.48</v>
+      </c>
+      <c r="AV73">
+        <v>1.59</v>
+      </c>
+      <c r="AW73">
+        <v>3.07</v>
+      </c>
+      <c r="AX73">
+        <v>3.48</v>
+      </c>
+      <c r="AY73">
+        <v>7.8</v>
+      </c>
+      <c r="AZ73">
+        <v>1.47</v>
+      </c>
+      <c r="BA73">
+        <v>1.41</v>
+      </c>
+      <c r="BB73">
+        <v>1.76</v>
+      </c>
+      <c r="BC73">
+        <v>2.28</v>
+      </c>
+      <c r="BD73">
+        <v>3.08</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>3</v>
+      </c>
+      <c r="BG73">
         <v>6</v>
       </c>
-      <c r="W73">
-        <v>1.38</v>
-      </c>
-      <c r="X73">
-        <v>2.8</v>
-      </c>
-      <c r="Y73">
-        <v>2.8</v>
-      </c>
-      <c r="Z73">
-        <v>1.38</v>
-      </c>
-      <c r="AA73">
-        <v>6.95</v>
-      </c>
-      <c r="AB73">
-        <v>1.06</v>
-      </c>
-      <c r="AC73">
-        <v>1.4</v>
-      </c>
-      <c r="AD73">
-        <v>5</v>
-      </c>
-      <c r="AE73">
+      <c r="BH73">
+        <v>3</v>
+      </c>
+      <c r="BI73">
         <v>7</v>
       </c>
-      <c r="AF73">
-        <v>1.02</v>
-      </c>
-      <c r="AG73">
-        <v>8.9</v>
-      </c>
-      <c r="AH73">
-        <v>1.28</v>
-      </c>
-      <c r="AI73">
-        <v>3.2</v>
-      </c>
-      <c r="AJ73">
-        <v>1.57</v>
-      </c>
-      <c r="AK73">
-        <v>2.35</v>
-      </c>
-      <c r="AL73">
-        <v>1.83</v>
-      </c>
-      <c r="AM73">
-        <v>1.83</v>
-      </c>
-      <c r="AN73">
-        <v>1.11</v>
-      </c>
-      <c r="AO73">
-        <v>1.25</v>
-      </c>
-      <c r="AP73">
-        <v>2.3</v>
-      </c>
-      <c r="AQ73">
-        <v>2.25</v>
-      </c>
-      <c r="AR73">
-        <v>0</v>
-      </c>
-      <c r="AS73">
-        <v>2.07</v>
-      </c>
-      <c r="AT73">
-        <v>0.71</v>
-      </c>
-      <c r="AU73">
-        <v>1.77</v>
-      </c>
-      <c r="AV73">
-        <v>1.08</v>
-      </c>
-      <c r="AW73">
-        <v>2.85</v>
-      </c>
-      <c r="AX73">
-        <v>1.18</v>
-      </c>
-      <c r="AY73">
-        <v>10</v>
-      </c>
-      <c r="AZ73">
-        <v>6.65</v>
-      </c>
-      <c r="BA73">
-        <v>1.53</v>
-      </c>
-      <c r="BB73">
-        <v>1.95</v>
-      </c>
-      <c r="BC73">
-        <v>2.6</v>
-      </c>
-      <c r="BD73">
-        <v>3.6</v>
-      </c>
-      <c r="BE73">
-        <v>0</v>
-      </c>
-      <c r="BF73">
-        <v>10</v>
-      </c>
-      <c r="BG73">
-        <v>3</v>
-      </c>
-      <c r="BH73">
-        <v>11</v>
-      </c>
-      <c r="BI73">
-        <v>2</v>
-      </c>
       <c r="BJ73">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="BK73">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:63">
@@ -15175,7 +15175,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2794219</v>
+        <v>2794218</v>
       </c>
       <c r="C74" t="s">
         <v>63</v>
@@ -15190,175 +15190,175 @@
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>4</v>
       </c>
       <c r="O74" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="Q74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>1.83</v>
+      </c>
+      <c r="U74">
+        <v>2.5</v>
+      </c>
+      <c r="V74">
+        <v>6</v>
+      </c>
+      <c r="W74">
+        <v>1.38</v>
+      </c>
+      <c r="X74">
+        <v>2.8</v>
+      </c>
+      <c r="Y74">
+        <v>2.8</v>
+      </c>
+      <c r="Z74">
+        <v>1.38</v>
+      </c>
+      <c r="AA74">
+        <v>6.95</v>
+      </c>
+      <c r="AB74">
+        <v>1.06</v>
+      </c>
+      <c r="AC74">
+        <v>1.4</v>
+      </c>
+      <c r="AD74">
         <v>5</v>
       </c>
-      <c r="S74">
-        <v>9</v>
-      </c>
-      <c r="T74">
+      <c r="AE74">
+        <v>7</v>
+      </c>
+      <c r="AF74">
+        <v>1.02</v>
+      </c>
+      <c r="AG74">
+        <v>8.9</v>
+      </c>
+      <c r="AH74">
+        <v>1.28</v>
+      </c>
+      <c r="AI74">
+        <v>3.2</v>
+      </c>
+      <c r="AJ74">
+        <v>1.57</v>
+      </c>
+      <c r="AK74">
+        <v>2.35</v>
+      </c>
+      <c r="AL74">
+        <v>1.83</v>
+      </c>
+      <c r="AM74">
+        <v>1.83</v>
+      </c>
+      <c r="AN74">
+        <v>1.11</v>
+      </c>
+      <c r="AO74">
+        <v>1.25</v>
+      </c>
+      <c r="AP74">
+        <v>2.3</v>
+      </c>
+      <c r="AQ74">
+        <v>2.25</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>2.07</v>
+      </c>
+      <c r="AT74">
+        <v>0.71</v>
+      </c>
+      <c r="AU74">
+        <v>1.77</v>
+      </c>
+      <c r="AV74">
+        <v>1.08</v>
+      </c>
+      <c r="AW74">
+        <v>2.85</v>
+      </c>
+      <c r="AX74">
+        <v>1.18</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>6.65</v>
+      </c>
+      <c r="BA74">
+        <v>1.53</v>
+      </c>
+      <c r="BB74">
+        <v>1.95</v>
+      </c>
+      <c r="BC74">
+        <v>2.6</v>
+      </c>
+      <c r="BD74">
+        <v>3.6</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>10</v>
+      </c>
+      <c r="BG74">
+        <v>3</v>
+      </c>
+      <c r="BH74">
+        <v>11</v>
+      </c>
+      <c r="BI74">
+        <v>2</v>
+      </c>
+      <c r="BJ74">
+        <v>21</v>
+      </c>
+      <c r="BK74">
         <v>5</v>
-      </c>
-      <c r="U74">
-        <v>2.05</v>
-      </c>
-      <c r="V74">
-        <v>2.38</v>
-      </c>
-      <c r="W74">
-        <v>1.44</v>
-      </c>
-      <c r="X74">
-        <v>2.63</v>
-      </c>
-      <c r="Y74">
-        <v>3.25</v>
-      </c>
-      <c r="Z74">
-        <v>1.33</v>
-      </c>
-      <c r="AA74">
-        <v>9</v>
-      </c>
-      <c r="AB74">
-        <v>1.07</v>
-      </c>
-      <c r="AC74">
-        <v>5</v>
-      </c>
-      <c r="AD74">
-        <v>3.5</v>
-      </c>
-      <c r="AE74">
-        <v>1.75</v>
-      </c>
-      <c r="AF74">
-        <v>1.07</v>
-      </c>
-      <c r="AG74">
-        <v>7.5</v>
-      </c>
-      <c r="AH74">
-        <v>1.36</v>
-      </c>
-      <c r="AI74">
-        <v>3</v>
-      </c>
-      <c r="AJ74">
-        <v>2.15</v>
-      </c>
-      <c r="AK74">
-        <v>1.67</v>
-      </c>
-      <c r="AL74">
-        <v>2.1</v>
-      </c>
-      <c r="AM74">
-        <v>1.67</v>
-      </c>
-      <c r="AN74">
-        <v>1.72</v>
-      </c>
-      <c r="AO74">
-        <v>1.27</v>
-      </c>
-      <c r="AP74">
-        <v>1.23</v>
-      </c>
-      <c r="AQ74">
-        <v>1.75</v>
-      </c>
-      <c r="AR74">
-        <v>3</v>
-      </c>
-      <c r="AS74">
-        <v>1.53</v>
-      </c>
-      <c r="AT74">
-        <v>2.07</v>
-      </c>
-      <c r="AU74">
-        <v>1.48</v>
-      </c>
-      <c r="AV74">
-        <v>1.59</v>
-      </c>
-      <c r="AW74">
-        <v>3.07</v>
-      </c>
-      <c r="AX74">
-        <v>3.48</v>
-      </c>
-      <c r="AY74">
-        <v>7.8</v>
-      </c>
-      <c r="AZ74">
-        <v>1.47</v>
-      </c>
-      <c r="BA74">
-        <v>1.41</v>
-      </c>
-      <c r="BB74">
-        <v>1.76</v>
-      </c>
-      <c r="BC74">
-        <v>2.28</v>
-      </c>
-      <c r="BD74">
-        <v>3.08</v>
-      </c>
-      <c r="BE74">
-        <v>0</v>
-      </c>
-      <c r="BF74">
-        <v>3</v>
-      </c>
-      <c r="BG74">
-        <v>6</v>
-      </c>
-      <c r="BH74">
-        <v>3</v>
-      </c>
-      <c r="BI74">
-        <v>7</v>
-      </c>
-      <c r="BJ74">
-        <v>6</v>
-      </c>
-      <c r="BK74">
-        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:63">
@@ -17085,7 +17085,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2794222</v>
+        <v>2794221</v>
       </c>
       <c r="C84" t="s">
         <v>63</v>
@@ -17100,43 +17100,43 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M84">
         <v>2</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O84" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="P84" t="s">
         <v>234</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T84">
         <v>3.5</v>
@@ -17145,13 +17145,13 @@
         <v>1.95</v>
       </c>
       <c r="V84">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="W84">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X84">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="Y84">
         <v>3</v>
@@ -17166,31 +17166,31 @@
         <v>1.07</v>
       </c>
       <c r="AC84">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD84">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AE84">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AF84">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AG84">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AH84">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AI84">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AJ84">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK84">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AL84">
         <v>2</v>
@@ -17199,76 +17199,76 @@
         <v>1.73</v>
       </c>
       <c r="AN84">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AO84">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AP84">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>0.64</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AU84">
-        <v>1.45</v>
+        <v>2.07</v>
       </c>
       <c r="AV84">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AW84">
-        <v>2.68</v>
+        <v>3.69</v>
       </c>
       <c r="AX84">
+        <v>2.02</v>
+      </c>
+      <c r="AY84">
+        <v>7.1</v>
+      </c>
+      <c r="AZ84">
         <v>2.13</v>
       </c>
-      <c r="AY84">
-        <v>7.3</v>
-      </c>
-      <c r="AZ84">
-        <v>2.03</v>
-      </c>
       <c r="BA84">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BB84">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="BC84">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="BD84">
-        <v>2.2</v>
+        <v>3.08</v>
       </c>
       <c r="BE84">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="BF84">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG84">
         <v>4</v>
       </c>
       <c r="BH84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BI84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ84">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="BK84">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:63">
@@ -17276,7 +17276,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2794221</v>
+        <v>2794222</v>
       </c>
       <c r="C85" t="s">
         <v>63</v>
@@ -17291,43 +17291,43 @@
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>2</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="P85" t="s">
         <v>235</v>
       </c>
       <c r="Q85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T85">
         <v>3.5</v>
@@ -17336,13 +17336,13 @@
         <v>1.95</v>
       </c>
       <c r="V85">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W85">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X85">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="Y85">
         <v>3</v>
@@ -17357,31 +17357,31 @@
         <v>1.07</v>
       </c>
       <c r="AC85">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD85">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE85">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AF85">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AG85">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AH85">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI85">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AJ85">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK85">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AL85">
         <v>2</v>
@@ -17390,76 +17390,76 @@
         <v>1.73</v>
       </c>
       <c r="AN85">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AO85">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR85">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>0.64</v>
       </c>
       <c r="AT85">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AU85">
-        <v>2.07</v>
+        <v>1.45</v>
       </c>
       <c r="AV85">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AW85">
-        <v>3.69</v>
+        <v>2.68</v>
       </c>
       <c r="AX85">
-        <v>2.02</v>
+        <v>2.13</v>
       </c>
       <c r="AY85">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AZ85">
-        <v>2.13</v>
+        <v>2.03</v>
       </c>
       <c r="BA85">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="BB85">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="BC85">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="BD85">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="BE85">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="BF85">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG85">
         <v>4</v>
       </c>
       <c r="BH85">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BI85">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ85">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="BK85">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:63">
@@ -17849,7 +17849,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2794232</v>
+        <v>2794233</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -17864,175 +17864,175 @@
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R88">
+        <v>12</v>
+      </c>
+      <c r="S88">
+        <v>24</v>
+      </c>
+      <c r="T88">
+        <v>1.67</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>9</v>
+      </c>
+      <c r="W88">
+        <v>1.33</v>
+      </c>
+      <c r="X88">
+        <v>3.25</v>
+      </c>
+      <c r="Y88">
+        <v>2.38</v>
+      </c>
+      <c r="Z88">
+        <v>1.53</v>
+      </c>
+      <c r="AA88">
+        <v>6</v>
+      </c>
+      <c r="AB88">
+        <v>1.11</v>
+      </c>
+      <c r="AC88">
+        <v>1.26</v>
+      </c>
+      <c r="AD88">
         <v>5</v>
       </c>
-      <c r="S88">
-        <v>7</v>
-      </c>
-      <c r="T88">
+      <c r="AE88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AF88">
+        <v>1.05</v>
+      </c>
+      <c r="AG88">
+        <v>9</v>
+      </c>
+      <c r="AH88">
+        <v>1.25</v>
+      </c>
+      <c r="AI88">
+        <v>3.75</v>
+      </c>
+      <c r="AJ88">
+        <v>1.73</v>
+      </c>
+      <c r="AK88">
+        <v>2</v>
+      </c>
+      <c r="AL88">
+        <v>2.38</v>
+      </c>
+      <c r="AM88">
+        <v>1.53</v>
+      </c>
+      <c r="AN88">
+        <v>1.04</v>
+      </c>
+      <c r="AO88">
+        <v>1.17</v>
+      </c>
+      <c r="AP88">
+        <v>3.2</v>
+      </c>
+      <c r="AQ88">
+        <v>3</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <v>2</v>
+      </c>
+      <c r="AT88">
+        <v>0.71</v>
+      </c>
+      <c r="AU88">
+        <v>1.88</v>
+      </c>
+      <c r="AV88">
+        <v>1.02</v>
+      </c>
+      <c r="AW88">
+        <v>2.9</v>
+      </c>
+      <c r="AX88">
+        <v>1.09</v>
+      </c>
+      <c r="AY88">
+        <v>12.75</v>
+      </c>
+      <c r="AZ88">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BA88">
+        <v>1.37</v>
+      </c>
+      <c r="BB88">
+        <v>1.7</v>
+      </c>
+      <c r="BC88">
+        <v>2.19</v>
+      </c>
+      <c r="BD88">
+        <v>2.98</v>
+      </c>
+      <c r="BE88">
+        <v>4</v>
+      </c>
+      <c r="BF88">
+        <v>9</v>
+      </c>
+      <c r="BG88">
+        <v>2</v>
+      </c>
+      <c r="BH88">
+        <v>11</v>
+      </c>
+      <c r="BI88">
+        <v>3</v>
+      </c>
+      <c r="BJ88">
+        <v>20</v>
+      </c>
+      <c r="BK88">
         <v>5</v>
-      </c>
-      <c r="U88">
-        <v>2.05</v>
-      </c>
-      <c r="V88">
-        <v>2.3</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
-      <c r="X88">
-        <v>2.62</v>
-      </c>
-      <c r="Y88">
-        <v>2.75</v>
-      </c>
-      <c r="Z88">
-        <v>1.4</v>
-      </c>
-      <c r="AA88">
-        <v>7.5</v>
-      </c>
-      <c r="AB88">
-        <v>1.07</v>
-      </c>
-      <c r="AC88">
-        <v>4.2</v>
-      </c>
-      <c r="AD88">
-        <v>3.4</v>
-      </c>
-      <c r="AE88">
-        <v>1.75</v>
-      </c>
-      <c r="AF88">
-        <v>1.08</v>
-      </c>
-      <c r="AG88">
-        <v>7</v>
-      </c>
-      <c r="AH88">
-        <v>1.36</v>
-      </c>
-      <c r="AI88">
-        <v>3</v>
-      </c>
-      <c r="AJ88">
-        <v>1.95</v>
-      </c>
-      <c r="AK88">
-        <v>1.75</v>
-      </c>
-      <c r="AL88">
-        <v>2.1</v>
-      </c>
-      <c r="AM88">
-        <v>1.67</v>
-      </c>
-      <c r="AN88">
-        <v>2.1</v>
-      </c>
-      <c r="AO88">
-        <v>1.29</v>
-      </c>
-      <c r="AP88">
-        <v>1.15</v>
-      </c>
-      <c r="AQ88">
-        <v>1.4</v>
-      </c>
-      <c r="AR88">
-        <v>3</v>
-      </c>
-      <c r="AS88">
-        <v>1.53</v>
-      </c>
-      <c r="AT88">
-        <v>2.29</v>
-      </c>
-      <c r="AU88">
-        <v>1.38</v>
-      </c>
-      <c r="AV88">
-        <v>1.6</v>
-      </c>
-      <c r="AW88">
-        <v>2.98</v>
-      </c>
-      <c r="AX88">
-        <v>3.98</v>
-      </c>
-      <c r="AY88">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ88">
-        <v>1.36</v>
-      </c>
-      <c r="BA88">
-        <v>1.41</v>
-      </c>
-      <c r="BB88">
-        <v>1.76</v>
-      </c>
-      <c r="BC88">
-        <v>2.28</v>
-      </c>
-      <c r="BD88">
-        <v>3.08</v>
-      </c>
-      <c r="BE88">
-        <v>4.1</v>
-      </c>
-      <c r="BF88">
-        <v>6</v>
-      </c>
-      <c r="BG88">
-        <v>5</v>
-      </c>
-      <c r="BH88">
-        <v>1</v>
-      </c>
-      <c r="BI88">
-        <v>5</v>
-      </c>
-      <c r="BJ88">
-        <v>7</v>
-      </c>
-      <c r="BK88">
-        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -18040,7 +18040,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2794233</v>
+        <v>2794232</v>
       </c>
       <c r="C89" t="s">
         <v>63</v>
@@ -18055,175 +18055,175 @@
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O89" t="s">
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="Q89">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="R89">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S89">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="T89">
+        <v>5</v>
+      </c>
+      <c r="U89">
+        <v>2.05</v>
+      </c>
+      <c r="V89">
+        <v>2.3</v>
+      </c>
+      <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>2.62</v>
+      </c>
+      <c r="Y89">
+        <v>2.75</v>
+      </c>
+      <c r="Z89">
+        <v>1.4</v>
+      </c>
+      <c r="AA89">
+        <v>7.5</v>
+      </c>
+      <c r="AB89">
+        <v>1.07</v>
+      </c>
+      <c r="AC89">
+        <v>4.2</v>
+      </c>
+      <c r="AD89">
+        <v>3.4</v>
+      </c>
+      <c r="AE89">
+        <v>1.75</v>
+      </c>
+      <c r="AF89">
+        <v>1.08</v>
+      </c>
+      <c r="AG89">
+        <v>7</v>
+      </c>
+      <c r="AH89">
+        <v>1.36</v>
+      </c>
+      <c r="AI89">
+        <v>3</v>
+      </c>
+      <c r="AJ89">
+        <v>1.95</v>
+      </c>
+      <c r="AK89">
+        <v>1.75</v>
+      </c>
+      <c r="AL89">
+        <v>2.1</v>
+      </c>
+      <c r="AM89">
         <v>1.67</v>
       </c>
-      <c r="U89">
-        <v>2.5</v>
-      </c>
-      <c r="V89">
-        <v>9</v>
-      </c>
-      <c r="W89">
-        <v>1.33</v>
-      </c>
-      <c r="X89">
-        <v>3.25</v>
-      </c>
-      <c r="Y89">
-        <v>2.38</v>
-      </c>
-      <c r="Z89">
+      <c r="AN89">
+        <v>2.1</v>
+      </c>
+      <c r="AO89">
+        <v>1.29</v>
+      </c>
+      <c r="AP89">
+        <v>1.15</v>
+      </c>
+      <c r="AQ89">
+        <v>1.4</v>
+      </c>
+      <c r="AR89">
+        <v>3</v>
+      </c>
+      <c r="AS89">
         <v>1.53</v>
       </c>
-      <c r="AA89">
+      <c r="AT89">
+        <v>2.29</v>
+      </c>
+      <c r="AU89">
+        <v>1.38</v>
+      </c>
+      <c r="AV89">
+        <v>1.6</v>
+      </c>
+      <c r="AW89">
+        <v>2.98</v>
+      </c>
+      <c r="AX89">
+        <v>3.98</v>
+      </c>
+      <c r="AY89">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ89">
+        <v>1.36</v>
+      </c>
+      <c r="BA89">
+        <v>1.41</v>
+      </c>
+      <c r="BB89">
+        <v>1.76</v>
+      </c>
+      <c r="BC89">
+        <v>2.28</v>
+      </c>
+      <c r="BD89">
+        <v>3.08</v>
+      </c>
+      <c r="BE89">
+        <v>4.1</v>
+      </c>
+      <c r="BF89">
         <v>6</v>
       </c>
-      <c r="AB89">
-        <v>1.11</v>
-      </c>
-      <c r="AC89">
-        <v>1.26</v>
-      </c>
-      <c r="AD89">
+      <c r="BG89">
         <v>5</v>
       </c>
-      <c r="AE89">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AF89">
-        <v>1.05</v>
-      </c>
-      <c r="AG89">
-        <v>9</v>
-      </c>
-      <c r="AH89">
-        <v>1.25</v>
-      </c>
-      <c r="AI89">
-        <v>3.75</v>
-      </c>
-      <c r="AJ89">
-        <v>1.73</v>
-      </c>
-      <c r="AK89">
-        <v>2</v>
-      </c>
-      <c r="AL89">
-        <v>2.38</v>
-      </c>
-      <c r="AM89">
-        <v>1.53</v>
-      </c>
-      <c r="AN89">
-        <v>1.04</v>
-      </c>
-      <c r="AO89">
-        <v>1.17</v>
-      </c>
-      <c r="AP89">
-        <v>3.2</v>
-      </c>
-      <c r="AQ89">
-        <v>3</v>
-      </c>
-      <c r="AR89">
-        <v>0</v>
-      </c>
-      <c r="AS89">
-        <v>2</v>
-      </c>
-      <c r="AT89">
-        <v>0.71</v>
-      </c>
-      <c r="AU89">
-        <v>1.88</v>
-      </c>
-      <c r="AV89">
-        <v>1.02</v>
-      </c>
-      <c r="AW89">
-        <v>2.9</v>
-      </c>
-      <c r="AX89">
-        <v>1.09</v>
-      </c>
-      <c r="AY89">
-        <v>12.75</v>
-      </c>
-      <c r="AZ89">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BA89">
-        <v>1.37</v>
-      </c>
-      <c r="BB89">
-        <v>1.7</v>
-      </c>
-      <c r="BC89">
-        <v>2.19</v>
-      </c>
-      <c r="BD89">
-        <v>2.98</v>
-      </c>
-      <c r="BE89">
-        <v>4</v>
-      </c>
-      <c r="BF89">
-        <v>9</v>
-      </c>
-      <c r="BG89">
-        <v>2</v>
-      </c>
       <c r="BH89">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BI89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ89">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="BK89">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:63">
@@ -18613,7 +18613,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2794240</v>
+        <v>2794237</v>
       </c>
       <c r="C92" t="s">
         <v>63</v>
@@ -18628,175 +18628,175 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O92" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="P92" t="s">
         <v>239</v>
       </c>
       <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
         <v>5</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>6</v>
       </c>
-      <c r="S92">
-        <v>11</v>
-      </c>
       <c r="T92">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="U92">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>2.5</v>
+      </c>
+      <c r="Y92">
+        <v>3.4</v>
+      </c>
+      <c r="Z92">
+        <v>1.3</v>
+      </c>
+      <c r="AA92">
+        <v>9</v>
+      </c>
+      <c r="AB92">
+        <v>1.05</v>
+      </c>
+      <c r="AC92">
+        <v>2.4</v>
+      </c>
+      <c r="AD92">
+        <v>3.2</v>
+      </c>
+      <c r="AE92">
+        <v>3</v>
+      </c>
+      <c r="AF92">
+        <v>1.1</v>
+      </c>
+      <c r="AG92">
+        <v>6.5</v>
+      </c>
+      <c r="AH92">
+        <v>1.44</v>
+      </c>
+      <c r="AI92">
+        <v>2.62</v>
+      </c>
+      <c r="AJ92">
+        <v>2.3</v>
+      </c>
+      <c r="AK92">
+        <v>1.6</v>
+      </c>
+      <c r="AL92">
+        <v>2</v>
+      </c>
+      <c r="AM92">
+        <v>1.73</v>
+      </c>
+      <c r="AN92">
+        <v>1.33</v>
+      </c>
+      <c r="AO92">
         <v>1.36</v>
       </c>
-      <c r="X92">
-        <v>3</v>
-      </c>
-      <c r="Y92">
-        <v>2.62</v>
-      </c>
-      <c r="Z92">
-        <v>1.44</v>
-      </c>
-      <c r="AA92">
-        <v>6.5</v>
-      </c>
-      <c r="AB92">
-        <v>1.1</v>
-      </c>
-      <c r="AC92">
-        <v>6.5</v>
-      </c>
-      <c r="AD92">
-        <v>4</v>
-      </c>
-      <c r="AE92">
+      <c r="AP92">
         <v>1.53</v>
       </c>
-      <c r="AF92">
-        <v>1.06</v>
-      </c>
-      <c r="AG92">
-        <v>8</v>
-      </c>
-      <c r="AH92">
+      <c r="AQ92">
+        <v>2.67</v>
+      </c>
+      <c r="AR92">
+        <v>3</v>
+      </c>
+      <c r="AS92">
+        <v>2</v>
+      </c>
+      <c r="AT92">
+        <v>2.29</v>
+      </c>
+      <c r="AU92">
+        <v>2.02</v>
+      </c>
+      <c r="AV92">
+        <v>1.56</v>
+      </c>
+      <c r="AW92">
+        <v>3.58</v>
+      </c>
+      <c r="AX92">
+        <v>2.23</v>
+      </c>
+      <c r="AY92">
+        <v>7.4</v>
+      </c>
+      <c r="AZ92">
+        <v>1.92</v>
+      </c>
+      <c r="BA92">
         <v>1.29</v>
       </c>
-      <c r="AI92">
-        <v>3.5</v>
-      </c>
-      <c r="AJ92">
-        <v>2.05</v>
-      </c>
-      <c r="AK92">
-        <v>1.75</v>
-      </c>
-      <c r="AL92">
-        <v>2.2</v>
-      </c>
-      <c r="AM92">
-        <v>1.62</v>
-      </c>
-      <c r="AN92">
-        <v>2.1</v>
-      </c>
-      <c r="AO92">
-        <v>1.29</v>
-      </c>
-      <c r="AP92">
-        <v>1.14</v>
-      </c>
-      <c r="AQ92">
-        <v>0.5</v>
-      </c>
-      <c r="AR92">
-        <v>1.5</v>
-      </c>
-      <c r="AS92">
-        <v>0.86</v>
-      </c>
-      <c r="AT92">
-        <v>1.57</v>
-      </c>
-      <c r="AU92">
-        <v>1.15</v>
-      </c>
-      <c r="AV92">
-        <v>1.3</v>
-      </c>
-      <c r="AW92">
-        <v>2.45</v>
-      </c>
-      <c r="AX92">
-        <v>5.4</v>
-      </c>
-      <c r="AY92">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AZ92">
-        <v>1.26</v>
-      </c>
-      <c r="BA92">
-        <v>1.39</v>
-      </c>
       <c r="BB92">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BC92">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BD92">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="BE92">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="BF92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH92">
         <v>8</v>
       </c>
       <c r="BI92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BJ92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK92">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:63">
@@ -18804,7 +18804,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2794237</v>
+        <v>2794240</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18819,175 +18819,175 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="P93" t="s">
         <v>240</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R93">
+        <v>6</v>
+      </c>
+      <c r="S93">
+        <v>11</v>
+      </c>
+      <c r="T93">
+        <v>6</v>
+      </c>
+      <c r="U93">
+        <v>2.1</v>
+      </c>
+      <c r="V93">
+        <v>2.05</v>
+      </c>
+      <c r="W93">
+        <v>1.36</v>
+      </c>
+      <c r="X93">
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <v>2.62</v>
+      </c>
+      <c r="Z93">
+        <v>1.44</v>
+      </c>
+      <c r="AA93">
+        <v>6.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.1</v>
+      </c>
+      <c r="AC93">
+        <v>6.5</v>
+      </c>
+      <c r="AD93">
+        <v>4</v>
+      </c>
+      <c r="AE93">
+        <v>1.53</v>
+      </c>
+      <c r="AF93">
+        <v>1.06</v>
+      </c>
+      <c r="AG93">
+        <v>8</v>
+      </c>
+      <c r="AH93">
+        <v>1.29</v>
+      </c>
+      <c r="AI93">
+        <v>3.5</v>
+      </c>
+      <c r="AJ93">
+        <v>2.05</v>
+      </c>
+      <c r="AK93">
+        <v>1.75</v>
+      </c>
+      <c r="AL93">
+        <v>2.2</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>2.1</v>
+      </c>
+      <c r="AO93">
+        <v>1.29</v>
+      </c>
+      <c r="AP93">
+        <v>1.14</v>
+      </c>
+      <c r="AQ93">
+        <v>0.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.5</v>
+      </c>
+      <c r="AS93">
+        <v>0.86</v>
+      </c>
+      <c r="AT93">
+        <v>1.57</v>
+      </c>
+      <c r="AU93">
+        <v>1.15</v>
+      </c>
+      <c r="AV93">
+        <v>1.3</v>
+      </c>
+      <c r="AW93">
+        <v>2.45</v>
+      </c>
+      <c r="AX93">
+        <v>5.4</v>
+      </c>
+      <c r="AY93">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ93">
+        <v>1.26</v>
+      </c>
+      <c r="BA93">
+        <v>1.39</v>
+      </c>
+      <c r="BB93">
+        <v>1.67</v>
+      </c>
+      <c r="BC93">
+        <v>2.1</v>
+      </c>
+      <c r="BD93">
+        <v>2.75</v>
+      </c>
+      <c r="BE93">
+        <v>3.9</v>
+      </c>
+      <c r="BF93">
+        <v>7</v>
+      </c>
+      <c r="BG93">
         <v>5</v>
-      </c>
-      <c r="S93">
-        <v>6</v>
-      </c>
-      <c r="T93">
-        <v>3.1</v>
-      </c>
-      <c r="U93">
-        <v>1.95</v>
-      </c>
-      <c r="V93">
-        <v>3.6</v>
-      </c>
-      <c r="W93">
-        <v>1.5</v>
-      </c>
-      <c r="X93">
-        <v>2.5</v>
-      </c>
-      <c r="Y93">
-        <v>3.4</v>
-      </c>
-      <c r="Z93">
-        <v>1.3</v>
-      </c>
-      <c r="AA93">
-        <v>9</v>
-      </c>
-      <c r="AB93">
-        <v>1.05</v>
-      </c>
-      <c r="AC93">
-        <v>2.4</v>
-      </c>
-      <c r="AD93">
-        <v>3.2</v>
-      </c>
-      <c r="AE93">
-        <v>3</v>
-      </c>
-      <c r="AF93">
-        <v>1.1</v>
-      </c>
-      <c r="AG93">
-        <v>6.5</v>
-      </c>
-      <c r="AH93">
-        <v>1.44</v>
-      </c>
-      <c r="AI93">
-        <v>2.62</v>
-      </c>
-      <c r="AJ93">
-        <v>2.3</v>
-      </c>
-      <c r="AK93">
-        <v>1.6</v>
-      </c>
-      <c r="AL93">
-        <v>2</v>
-      </c>
-      <c r="AM93">
-        <v>1.73</v>
-      </c>
-      <c r="AN93">
-        <v>1.33</v>
-      </c>
-      <c r="AO93">
-        <v>1.36</v>
-      </c>
-      <c r="AP93">
-        <v>1.53</v>
-      </c>
-      <c r="AQ93">
-        <v>2.67</v>
-      </c>
-      <c r="AR93">
-        <v>3</v>
-      </c>
-      <c r="AS93">
-        <v>2</v>
-      </c>
-      <c r="AT93">
-        <v>2.29</v>
-      </c>
-      <c r="AU93">
-        <v>2.02</v>
-      </c>
-      <c r="AV93">
-        <v>1.56</v>
-      </c>
-      <c r="AW93">
-        <v>3.58</v>
-      </c>
-      <c r="AX93">
-        <v>2.23</v>
-      </c>
-      <c r="AY93">
-        <v>7.4</v>
-      </c>
-      <c r="AZ93">
-        <v>1.92</v>
-      </c>
-      <c r="BA93">
-        <v>1.29</v>
-      </c>
-      <c r="BB93">
-        <v>1.53</v>
-      </c>
-      <c r="BC93">
-        <v>1.95</v>
-      </c>
-      <c r="BD93">
-        <v>2.54</v>
-      </c>
-      <c r="BE93">
-        <v>3.56</v>
-      </c>
-      <c r="BF93">
-        <v>5</v>
-      </c>
-      <c r="BG93">
-        <v>3</v>
       </c>
       <c r="BH93">
         <v>8</v>
       </c>
       <c r="BI93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ93">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK93">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18995,7 +18995,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2794241</v>
+        <v>2794236</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -19010,10 +19010,10 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -19025,82 +19025,82 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q94">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T94">
-        <v>6</v>
+        <v>1.83</v>
       </c>
       <c r="U94">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="V94">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>2.88</v>
+      </c>
+      <c r="Y94">
+        <v>2.58</v>
+      </c>
+      <c r="Z94">
+        <v>1.44</v>
+      </c>
+      <c r="AA94">
+        <v>6.15</v>
+      </c>
+      <c r="AB94">
+        <v>1.09</v>
+      </c>
+      <c r="AC94">
         <v>1.4</v>
       </c>
-      <c r="X94">
-        <v>2.75</v>
-      </c>
-      <c r="Y94">
-        <v>2.75</v>
-      </c>
-      <c r="Z94">
-        <v>1.4</v>
-      </c>
-      <c r="AA94">
-        <v>7</v>
-      </c>
-      <c r="AB94">
-        <v>1.08</v>
-      </c>
-      <c r="AC94">
-        <v>6.5</v>
-      </c>
       <c r="AD94">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AE94">
-        <v>1.55</v>
+        <v>8.5</v>
       </c>
       <c r="AF94">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG94">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH94">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AI94">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AJ94">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AK94">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AL94">
         <v>2.2</v>
@@ -19109,76 +19109,76 @@
         <v>1.62</v>
       </c>
       <c r="AN94">
-        <v>1.95</v>
+        <v>1.11</v>
       </c>
       <c r="AO94">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AP94">
-        <v>1.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ94">
+        <v>1.17</v>
+      </c>
+      <c r="AR94">
+        <v>0.17</v>
+      </c>
+      <c r="AS94">
+        <v>1.57</v>
+      </c>
+      <c r="AT94">
+        <v>0.71</v>
+      </c>
+      <c r="AU94">
+        <v>1.79</v>
+      </c>
+      <c r="AV94">
+        <v>0.95</v>
+      </c>
+      <c r="AW94">
+        <v>2.74</v>
+      </c>
+      <c r="AX94">
+        <v>1.17</v>
+      </c>
+      <c r="AY94">
+        <v>10.5</v>
+      </c>
+      <c r="AZ94">
+        <v>6.45</v>
+      </c>
+      <c r="BA94">
         <v>1.33</v>
       </c>
-      <c r="AR94">
-        <v>1.5</v>
-      </c>
-      <c r="AS94">
-        <v>0.85</v>
-      </c>
-      <c r="AT94">
-        <v>1.57</v>
-      </c>
-      <c r="AU94">
-        <v>1.17</v>
-      </c>
-      <c r="AV94">
-        <v>1.93</v>
-      </c>
-      <c r="AW94">
-        <v>3.1</v>
-      </c>
-      <c r="AX94">
-        <v>3.82</v>
-      </c>
-      <c r="AY94">
-        <v>8.4</v>
-      </c>
-      <c r="AZ94">
-        <v>1.38</v>
-      </c>
-      <c r="BA94">
-        <v>1.32</v>
-      </c>
       <c r="BB94">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BC94">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="BD94">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="BE94">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="BF94">
         <v>4</v>
       </c>
       <c r="BG94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH94">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI94">
+        <v>3</v>
+      </c>
+      <c r="BJ94">
+        <v>13</v>
+      </c>
+      <c r="BK94">
         <v>5</v>
-      </c>
-      <c r="BJ94">
-        <v>10</v>
-      </c>
-      <c r="BK94">
-        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -19186,7 +19186,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2794236</v>
+        <v>2794241</v>
       </c>
       <c r="C95" t="s">
         <v>63</v>
@@ -19201,10 +19201,10 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -19216,82 +19216,82 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>1</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95">
         <v>10</v>
       </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>11</v>
-      </c>
       <c r="T95">
-        <v>1.83</v>
+        <v>6</v>
       </c>
       <c r="U95">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="V95">
+        <v>2.1</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>2.75</v>
+      </c>
+      <c r="Y95">
+        <v>2.75</v>
+      </c>
+      <c r="Z95">
+        <v>1.4</v>
+      </c>
+      <c r="AA95">
         <v>7</v>
       </c>
-      <c r="W95">
+      <c r="AB95">
+        <v>1.08</v>
+      </c>
+      <c r="AC95">
+        <v>6.5</v>
+      </c>
+      <c r="AD95">
+        <v>4</v>
+      </c>
+      <c r="AE95">
+        <v>1.55</v>
+      </c>
+      <c r="AF95">
+        <v>1.07</v>
+      </c>
+      <c r="AG95">
+        <v>7.5</v>
+      </c>
+      <c r="AH95">
         <v>1.36</v>
       </c>
-      <c r="X95">
-        <v>2.88</v>
-      </c>
-      <c r="Y95">
-        <v>2.58</v>
-      </c>
-      <c r="Z95">
-        <v>1.44</v>
-      </c>
-      <c r="AA95">
-        <v>6.15</v>
-      </c>
-      <c r="AB95">
-        <v>1.09</v>
-      </c>
-      <c r="AC95">
-        <v>1.4</v>
-      </c>
-      <c r="AD95">
-        <v>4.5</v>
-      </c>
-      <c r="AE95">
-        <v>8.5</v>
-      </c>
-      <c r="AF95">
-        <v>1.05</v>
-      </c>
-      <c r="AG95">
-        <v>9</v>
-      </c>
-      <c r="AH95">
-        <v>1.26</v>
-      </c>
       <c r="AI95">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AJ95">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AK95">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AL95">
         <v>2.2</v>
@@ -19300,76 +19300,76 @@
         <v>1.62</v>
       </c>
       <c r="AN95">
-        <v>1.11</v>
+        <v>1.95</v>
       </c>
       <c r="AO95">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AP95">
-        <v>2.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
+        <v>1.33</v>
+      </c>
+      <c r="AR95">
+        <v>1.5</v>
+      </c>
+      <c r="AS95">
+        <v>0.85</v>
+      </c>
+      <c r="AT95">
+        <v>1.57</v>
+      </c>
+      <c r="AU95">
         <v>1.17</v>
       </c>
-      <c r="AR95">
-        <v>0.17</v>
-      </c>
-      <c r="AS95">
-        <v>1.57</v>
-      </c>
-      <c r="AT95">
-        <v>0.71</v>
-      </c>
-      <c r="AU95">
-        <v>1.79</v>
-      </c>
       <c r="AV95">
-        <v>0.95</v>
+        <v>1.93</v>
       </c>
       <c r="AW95">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="AX95">
-        <v>1.17</v>
+        <v>3.82</v>
       </c>
       <c r="AY95">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AZ95">
-        <v>6.45</v>
+        <v>1.38</v>
       </c>
       <c r="BA95">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BB95">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BC95">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="BD95">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="BE95">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="BF95">
         <v>4</v>
       </c>
       <c r="BG95">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK95">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:63">
@@ -20183,7 +20183,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20714,7 +20714,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2794247</v>
+        <v>2794245</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -20729,10 +20729,10 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -20747,115 +20747,115 @@
         <v>1</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="P103" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S103">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T103">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="U103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="W103">
         <v>1.44</v>
       </c>
       <c r="X103">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y103">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z103">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA103">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB103">
         <v>1.07</v>
       </c>
       <c r="AC103">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="AD103">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AE103">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="AF103">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AG103">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="AH103">
+        <v>1.36</v>
+      </c>
+      <c r="AI103">
+        <v>3</v>
+      </c>
+      <c r="AJ103">
+        <v>2.15</v>
+      </c>
+      <c r="AK103">
+        <v>1.67</v>
+      </c>
+      <c r="AL103">
+        <v>1.91</v>
+      </c>
+      <c r="AM103">
+        <v>1.8</v>
+      </c>
+      <c r="AN103">
+        <v>1.55</v>
+      </c>
+      <c r="AO103">
         <v>1.33</v>
       </c>
-      <c r="AI103">
-        <v>2.93</v>
-      </c>
-      <c r="AJ103">
-        <v>2.1</v>
-      </c>
-      <c r="AK103">
-        <v>1.7</v>
-      </c>
-      <c r="AL103">
-        <v>2.2</v>
-      </c>
-      <c r="AM103">
-        <v>1.62</v>
-      </c>
-      <c r="AN103">
-        <v>1.17</v>
-      </c>
-      <c r="AO103">
+      <c r="AP103">
+        <v>1.36</v>
+      </c>
+      <c r="AQ103">
+        <v>0.86</v>
+      </c>
+      <c r="AR103">
         <v>1.29</v>
       </c>
-      <c r="AP103">
-        <v>2.05</v>
-      </c>
-      <c r="AQ103">
-        <v>1.71</v>
-      </c>
-      <c r="AR103">
-        <v>1.43</v>
-      </c>
       <c r="AS103">
-        <v>2.07</v>
+        <v>0.71</v>
       </c>
       <c r="AT103">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AU103">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="AV103">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="AW103">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="AX103">
         <v>0</v>
@@ -20882,22 +20882,22 @@
         <v>0</v>
       </c>
       <c r="BF103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH103">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BI103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ103">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK103">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:63">
@@ -20905,7 +20905,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2794245</v>
+        <v>2794247</v>
       </c>
       <c r="C104" t="s">
         <v>63</v>
@@ -20920,10 +20920,10 @@
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -20938,115 +20938,115 @@
         <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104">
+        <v>2.2</v>
+      </c>
+      <c r="U104">
+        <v>2.1</v>
+      </c>
+      <c r="V104">
         <v>6</v>
-      </c>
-      <c r="R104">
-        <v>4</v>
-      </c>
-      <c r="S104">
-        <v>10</v>
-      </c>
-      <c r="T104">
-        <v>3.75</v>
-      </c>
-      <c r="U104">
-        <v>2</v>
-      </c>
-      <c r="V104">
-        <v>2.88</v>
       </c>
       <c r="W104">
         <v>1.44</v>
       </c>
       <c r="X104">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y104">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z104">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA104">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB104">
         <v>1.07</v>
       </c>
       <c r="AC104">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="AD104">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AE104">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="AF104">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG104">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="AH104">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI104">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="AJ104">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK104">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AL104">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AM104">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AN104">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="AO104">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP104">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="AR104">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AS104">
-        <v>0.71</v>
+        <v>2.07</v>
       </c>
       <c r="AT104">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AU104">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="AV104">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="AW104">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="AX104">
         <v>0</v>
@@ -21073,22 +21073,22 @@
         <v>0</v>
       </c>
       <c r="BF104">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH104">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BI104">
+        <v>4</v>
+      </c>
+      <c r="BJ104">
+        <v>7</v>
+      </c>
+      <c r="BK104">
         <v>8</v>
-      </c>
-      <c r="BJ104">
-        <v>12</v>
-      </c>
-      <c r="BK104">
-        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:63">
@@ -21669,7 +21669,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>2794250</v>
+        <v>2794254</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
@@ -21684,52 +21684,52 @@
         <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P108" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="Q108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T108">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W108">
         <v>1.44</v>
@@ -21750,13 +21750,13 @@
         <v>1.07</v>
       </c>
       <c r="AC108">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AD108">
         <v>3.2</v>
       </c>
       <c r="AE108">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AF108">
         <v>1.08</v>
@@ -21771,46 +21771,46 @@
         <v>2.75</v>
       </c>
       <c r="AJ108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AK108">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AL108">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AM108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO108">
         <v>1.35</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108">
+        <v>2.57</v>
+      </c>
+      <c r="AR108">
+        <v>1.71</v>
+      </c>
+      <c r="AS108">
+        <v>2.07</v>
+      </c>
+      <c r="AT108">
         <v>1.57</v>
       </c>
-      <c r="AR108">
-        <v>3</v>
-      </c>
-      <c r="AS108">
-        <v>2</v>
-      </c>
-      <c r="AT108">
-        <v>2.29</v>
-      </c>
       <c r="AU108">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="AV108">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="AW108">
-        <v>3.61</v>
+        <v>3.85</v>
       </c>
       <c r="AX108">
         <v>0</v>
@@ -21840,19 +21840,19 @@
         <v>4</v>
       </c>
       <c r="BG108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>8</v>
+      </c>
+      <c r="BJ108">
         <v>9</v>
       </c>
-      <c r="BI108">
-        <v>5</v>
-      </c>
-      <c r="BJ108">
-        <v>13</v>
-      </c>
       <c r="BK108">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:63">
@@ -21860,7 +21860,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>2794254</v>
+        <v>2794250</v>
       </c>
       <c r="C109" t="s">
         <v>63</v>
@@ -21875,52 +21875,52 @@
         <v>16</v>
       </c>
       <c r="G109" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H109" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="P109" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R109">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T109">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W109">
         <v>1.44</v>
@@ -21941,13 +21941,13 @@
         <v>1.07</v>
       </c>
       <c r="AC109">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AD109">
         <v>3.2</v>
       </c>
       <c r="AE109">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AF109">
         <v>1.08</v>
@@ -21962,46 +21962,46 @@
         <v>2.75</v>
       </c>
       <c r="AJ109">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AK109">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AL109">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AM109">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AN109">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AO109">
         <v>1.35</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="AR109">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>1.57</v>
+        <v>2.29</v>
       </c>
       <c r="AU109">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="AV109">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="AW109">
-        <v>3.85</v>
+        <v>3.61</v>
       </c>
       <c r="AX109">
         <v>0</v>
@@ -22031,19 +22031,19 @@
         <v>4</v>
       </c>
       <c r="BG109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH109">
+        <v>9</v>
+      </c>
+      <c r="BI109">
         <v>5</v>
       </c>
-      <c r="BI109">
-        <v>8</v>
-      </c>
       <c r="BJ109">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK109">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:63">
@@ -22242,7 +22242,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>2794249</v>
+        <v>2794251</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22257,49 +22257,49 @@
         <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H111" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O111" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="Q111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V111">
         <v>6</v>
@@ -22317,16 +22317,16 @@
         <v>1.4</v>
       </c>
       <c r="AA111">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB111">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC111">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AD111">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AE111">
         <v>7</v>
@@ -22344,46 +22344,46 @@
         <v>3.25</v>
       </c>
       <c r="AJ111">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK111">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AL111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AM111">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AN111">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AO111">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AP111">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR111">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="AS111">
         <v>1.57</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AV111">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AW111">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="AX111">
         <v>0</v>
@@ -22410,22 +22410,22 @@
         <v>0</v>
       </c>
       <c r="BF111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH111">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK111">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -22433,7 +22433,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>2794251</v>
+        <v>2794249</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
@@ -22448,49 +22448,49 @@
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O112" t="s">
+        <v>145</v>
+      </c>
+      <c r="P112" t="s">
         <v>84</v>
       </c>
-      <c r="P112" t="s">
-        <v>247</v>
-      </c>
       <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
         <v>8</v>
       </c>
-      <c r="R112">
-        <v>1</v>
-      </c>
-      <c r="S112">
-        <v>9</v>
-      </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U112">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V112">
         <v>6</v>
@@ -22508,16 +22508,16 @@
         <v>1.4</v>
       </c>
       <c r="AA112">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB112">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC112">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD112">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AE112">
         <v>7</v>
@@ -22535,46 +22535,46 @@
         <v>3.25</v>
       </c>
       <c r="AJ112">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK112">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AL112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AM112">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AN112">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AO112">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AP112">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR112">
-        <v>0.71</v>
+        <v>0.29</v>
       </c>
       <c r="AS112">
         <v>1.57</v>
       </c>
       <c r="AT112">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="AU112">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="AV112">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AW112">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="AX112">
         <v>0</v>
@@ -22601,22 +22601,22 @@
         <v>0</v>
       </c>
       <c r="BF112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH112">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ112">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK112">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:63">
@@ -22624,7 +22624,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2794259</v>
+        <v>2794258</v>
       </c>
       <c r="C113" t="s">
         <v>63</v>
@@ -22639,52 +22639,52 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4</v>
       </c>
       <c r="R113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T113">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V113">
-        <v>7.5</v>
+        <v>2.25</v>
       </c>
       <c r="W113">
         <v>1.4</v>
@@ -22705,109 +22705,109 @@
         <v>1.08</v>
       </c>
       <c r="AC113">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD113">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE113">
-        <v>8</v>
+        <v>1.67</v>
       </c>
       <c r="AF113">
         <v>1.06</v>
       </c>
       <c r="AG113">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AH113">
         <v>1.3</v>
       </c>
       <c r="AI113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ113">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AK113">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AL113">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AM113">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AN113">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO113">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AP113">
-        <v>2.4</v>
+        <v>1.26</v>
       </c>
       <c r="AQ113">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AS113">
-        <v>2.15</v>
+        <v>0.85</v>
       </c>
       <c r="AT113">
+        <v>0.93</v>
+      </c>
+      <c r="AU113">
+        <v>1.16</v>
+      </c>
+      <c r="AV113">
+        <v>1.36</v>
+      </c>
+      <c r="AW113">
+        <v>2.52</v>
+      </c>
+      <c r="AX113">
+        <v>3.68</v>
+      </c>
+      <c r="AY113">
+        <v>7.2</v>
+      </c>
+      <c r="AZ113">
+        <v>1.45</v>
+      </c>
+      <c r="BA113">
         <v>1.38</v>
       </c>
-      <c r="AU113">
-        <v>1.45</v>
-      </c>
-      <c r="AV113">
-        <v>1.28</v>
-      </c>
-      <c r="AW113">
-        <v>2.73</v>
-      </c>
-      <c r="AX113">
-        <v>1.27</v>
-      </c>
-      <c r="AY113">
-        <v>8.9</v>
-      </c>
-      <c r="AZ113">
-        <v>5.25</v>
-      </c>
-      <c r="BA113">
-        <v>1.31</v>
-      </c>
       <c r="BB113">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BC113">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="BD113">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="BE113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BF113">
         <v>6</v>
       </c>
       <c r="BG113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH113">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ113">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK113">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:63">
@@ -22815,7 +22815,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2794258</v>
+        <v>2794259</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22830,52 +22830,52 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
+        <v>146</v>
+      </c>
+      <c r="P114" t="s">
         <v>84</v>
-      </c>
-      <c r="P114" t="s">
-        <v>248</v>
       </c>
       <c r="Q114">
         <v>4</v>
       </c>
       <c r="R114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T114">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="U114">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V114">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="W114">
         <v>1.4</v>
@@ -22896,109 +22896,109 @@
         <v>1.08</v>
       </c>
       <c r="AC114">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="AD114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE114">
-        <v>1.67</v>
+        <v>8</v>
       </c>
       <c r="AF114">
         <v>1.06</v>
       </c>
       <c r="AG114">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AH114">
         <v>1.3</v>
       </c>
       <c r="AI114">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AJ114">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AK114">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AL114">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AM114">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AN114">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="AO114">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AP114">
-        <v>1.26</v>
+        <v>2.4</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AR114">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>0.85</v>
+        <v>2.15</v>
       </c>
       <c r="AT114">
-        <v>0.93</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AV114">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AW114">
-        <v>2.52</v>
+        <v>2.73</v>
       </c>
       <c r="AX114">
-        <v>3.68</v>
+        <v>1.27</v>
       </c>
       <c r="AY114">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="AZ114">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="BA114">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="BB114">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="BC114">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="BD114">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="BE114">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BF114">
         <v>6</v>
       </c>
       <c r="BG114">
+        <v>2</v>
+      </c>
+      <c r="BH114">
+        <v>11</v>
+      </c>
+      <c r="BI114">
+        <v>3</v>
+      </c>
+      <c r="BJ114">
+        <v>17</v>
+      </c>
+      <c r="BK114">
         <v>5</v>
-      </c>
-      <c r="BH114">
-        <v>7</v>
-      </c>
-      <c r="BI114">
-        <v>5</v>
-      </c>
-      <c r="BJ114">
-        <v>13</v>
-      </c>
-      <c r="BK114">
-        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -23006,7 +23006,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2794262</v>
+        <v>2794257</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -23021,154 +23021,154 @@
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="P115" t="s">
         <v>84</v>
       </c>
       <c r="Q115">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R115">
         <v>4</v>
       </c>
       <c r="S115">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T115">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="U115">
+        <v>2.38</v>
+      </c>
+      <c r="V115">
+        <v>9.5</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>2.9</v>
+      </c>
+      <c r="Y115">
+        <v>2.65</v>
+      </c>
+      <c r="Z115">
+        <v>1.43</v>
+      </c>
+      <c r="AA115">
+        <v>6.75</v>
+      </c>
+      <c r="AB115">
+        <v>1.09</v>
+      </c>
+      <c r="AC115">
+        <v>1.29</v>
+      </c>
+      <c r="AD115">
+        <v>5</v>
+      </c>
+      <c r="AE115">
+        <v>13</v>
+      </c>
+      <c r="AF115">
+        <v>1.01</v>
+      </c>
+      <c r="AG115">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>3.75</v>
+      </c>
+      <c r="AJ115">
+        <v>1.85</v>
+      </c>
+      <c r="AK115">
         <v>1.95</v>
       </c>
-      <c r="V115">
-        <v>2.6</v>
-      </c>
-      <c r="W115">
-        <v>1.4</v>
-      </c>
-      <c r="X115">
-        <v>2.75</v>
-      </c>
-      <c r="Y115">
-        <v>3</v>
-      </c>
-      <c r="Z115">
-        <v>1.36</v>
-      </c>
-      <c r="AA115">
-        <v>8</v>
-      </c>
-      <c r="AB115">
-        <v>1.08</v>
-      </c>
-      <c r="AC115">
-        <v>4.33</v>
-      </c>
-      <c r="AD115">
-        <v>3.2</v>
-      </c>
-      <c r="AE115">
-        <v>1.95</v>
-      </c>
-      <c r="AF115">
+      <c r="AL115">
+        <v>2.63</v>
+      </c>
+      <c r="AM115">
+        <v>1.44</v>
+      </c>
+      <c r="AN115">
         <v>1.04</v>
       </c>
-      <c r="AG115">
-        <v>7.9</v>
-      </c>
-      <c r="AH115">
-        <v>1.34</v>
-      </c>
-      <c r="AI115">
-        <v>2.88</v>
-      </c>
-      <c r="AJ115">
-        <v>2.35</v>
-      </c>
-      <c r="AK115">
-        <v>1.57</v>
-      </c>
-      <c r="AL115">
-        <v>2.1</v>
-      </c>
-      <c r="AM115">
-        <v>1.67</v>
-      </c>
-      <c r="AN115">
-        <v>1.73</v>
-      </c>
       <c r="AO115">
-        <v>1.29</v>
+        <v>1.1</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="AQ115">
-        <v>0.38</v>
+        <v>1.88</v>
       </c>
       <c r="AR115">
-        <v>1.57</v>
+        <v>0.25</v>
       </c>
       <c r="AS115">
-        <v>0.86</v>
+        <v>2.07</v>
       </c>
       <c r="AT115">
-        <v>1.23</v>
+        <v>0.71</v>
       </c>
       <c r="AU115">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AV115">
+        <v>0.97</v>
+      </c>
+      <c r="AW115">
+        <v>2.52</v>
+      </c>
+      <c r="AX115">
         <v>1.05</v>
       </c>
-      <c r="AW115">
-        <v>2.34</v>
-      </c>
-      <c r="AX115">
-        <v>3.46</v>
-      </c>
       <c r="AY115">
-        <v>7.1</v>
+        <v>15</v>
       </c>
       <c r="AZ115">
-        <v>1.49</v>
+        <v>12</v>
       </c>
       <c r="BA115">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BB115">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BC115">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="BD115">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="BE115">
         <v>0</v>
@@ -23177,19 +23177,19 @@
         <v>4</v>
       </c>
       <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>9</v>
+      </c>
+      <c r="BI115">
         <v>4</v>
       </c>
-      <c r="BH115">
-        <v>6</v>
-      </c>
-      <c r="BI115">
-        <v>3</v>
-      </c>
       <c r="BJ115">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK115">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -23197,7 +23197,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2794257</v>
+        <v>2794262</v>
       </c>
       <c r="C116" t="s">
         <v>63</v>
@@ -23212,154 +23212,154 @@
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116">
         <v>0</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="P116" t="s">
         <v>84</v>
       </c>
       <c r="Q116">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R116">
         <v>4</v>
       </c>
       <c r="S116">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T116">
+        <v>4.5</v>
+      </c>
+      <c r="U116">
+        <v>1.95</v>
+      </c>
+      <c r="V116">
+        <v>2.6</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>1.36</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>4.33</v>
+      </c>
+      <c r="AD116">
+        <v>3.2</v>
+      </c>
+      <c r="AE116">
+        <v>1.95</v>
+      </c>
+      <c r="AF116">
+        <v>1.04</v>
+      </c>
+      <c r="AG116">
+        <v>7.9</v>
+      </c>
+      <c r="AH116">
+        <v>1.34</v>
+      </c>
+      <c r="AI116">
+        <v>2.88</v>
+      </c>
+      <c r="AJ116">
+        <v>2.35</v>
+      </c>
+      <c r="AK116">
+        <v>1.57</v>
+      </c>
+      <c r="AL116">
+        <v>2.1</v>
+      </c>
+      <c r="AM116">
+        <v>1.67</v>
+      </c>
+      <c r="AN116">
         <v>1.73</v>
       </c>
-      <c r="U116">
-        <v>2.38</v>
-      </c>
-      <c r="V116">
-        <v>9.5</v>
-      </c>
-      <c r="W116">
-        <v>1.36</v>
-      </c>
-      <c r="X116">
-        <v>2.9</v>
-      </c>
-      <c r="Y116">
-        <v>2.65</v>
-      </c>
-      <c r="Z116">
-        <v>1.43</v>
-      </c>
-      <c r="AA116">
-        <v>6.75</v>
-      </c>
-      <c r="AB116">
-        <v>1.09</v>
-      </c>
-      <c r="AC116">
+      <c r="AO116">
         <v>1.29</v>
       </c>
-      <c r="AD116">
-        <v>5</v>
-      </c>
-      <c r="AE116">
-        <v>13</v>
-      </c>
-      <c r="AF116">
-        <v>1.01</v>
-      </c>
-      <c r="AG116">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AH116">
+      <c r="AP116">
         <v>1.25</v>
       </c>
-      <c r="AI116">
-        <v>3.75</v>
-      </c>
-      <c r="AJ116">
-        <v>1.85</v>
-      </c>
-      <c r="AK116">
-        <v>1.95</v>
-      </c>
-      <c r="AL116">
-        <v>2.63</v>
-      </c>
-      <c r="AM116">
+      <c r="AQ116">
+        <v>0.38</v>
+      </c>
+      <c r="AR116">
+        <v>1.57</v>
+      </c>
+      <c r="AS116">
+        <v>0.86</v>
+      </c>
+      <c r="AT116">
+        <v>1.23</v>
+      </c>
+      <c r="AU116">
+        <v>1.29</v>
+      </c>
+      <c r="AV116">
+        <v>1.05</v>
+      </c>
+      <c r="AW116">
+        <v>2.34</v>
+      </c>
+      <c r="AX116">
+        <v>3.46</v>
+      </c>
+      <c r="AY116">
+        <v>7.1</v>
+      </c>
+      <c r="AZ116">
+        <v>1.49</v>
+      </c>
+      <c r="BA116">
         <v>1.44</v>
       </c>
-      <c r="AN116">
-        <v>1.04</v>
-      </c>
-      <c r="AO116">
-        <v>1.1</v>
-      </c>
-      <c r="AP116">
-        <v>3.5</v>
-      </c>
-      <c r="AQ116">
-        <v>1.88</v>
-      </c>
-      <c r="AR116">
-        <v>0.25</v>
-      </c>
-      <c r="AS116">
-        <v>2.07</v>
-      </c>
-      <c r="AT116">
-        <v>0.71</v>
-      </c>
-      <c r="AU116">
-        <v>1.55</v>
-      </c>
-      <c r="AV116">
-        <v>0.97</v>
-      </c>
-      <c r="AW116">
-        <v>2.52</v>
-      </c>
-      <c r="AX116">
-        <v>1.05</v>
-      </c>
-      <c r="AY116">
-        <v>15</v>
-      </c>
-      <c r="AZ116">
-        <v>12</v>
-      </c>
-      <c r="BA116">
-        <v>1.41</v>
-      </c>
       <c r="BB116">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BC116">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="BD116">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BE116">
         <v>0</v>
@@ -23368,19 +23368,19 @@
         <v>4</v>
       </c>
       <c r="BG116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH116">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ116">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK116">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:63">
@@ -27972,7 +27972,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2794285</v>
+        <v>2794287</v>
       </c>
       <c r="C141" t="s">
         <v>63</v>
@@ -27987,133 +27987,133 @@
         <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="P141" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="Q141">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S141">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T141">
-        <v>1.83</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
+        <v>3.2</v>
+      </c>
+      <c r="W141">
+        <v>1.43</v>
+      </c>
+      <c r="X141">
+        <v>2.6</v>
+      </c>
+      <c r="Y141">
+        <v>2.87</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>7.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>3</v>
+      </c>
+      <c r="AD141">
+        <v>3</v>
+      </c>
+      <c r="AE141">
         <v>2.25</v>
       </c>
-      <c r="V141">
-        <v>8.5</v>
-      </c>
-      <c r="W141">
-        <v>1.37</v>
-      </c>
-      <c r="X141">
-        <v>2.8</v>
-      </c>
-      <c r="Y141">
-        <v>2.65</v>
-      </c>
-      <c r="Z141">
-        <v>1.41</v>
-      </c>
-      <c r="AA141">
-        <v>6.75</v>
-      </c>
-      <c r="AB141">
-        <v>1.09</v>
-      </c>
-      <c r="AC141">
-        <v>1.3</v>
-      </c>
-      <c r="AD141">
-        <v>4.2</v>
-      </c>
-      <c r="AE141">
-        <v>9.5</v>
-      </c>
       <c r="AF141">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG141">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="AH141">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AI141">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ141">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AK141">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AL141">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AM141">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AN141">
+        <v>1.75</v>
+      </c>
+      <c r="AO141">
+        <v>1.32</v>
+      </c>
+      <c r="AP141">
+        <v>1.26</v>
+      </c>
+      <c r="AQ141">
+        <v>0.9</v>
+      </c>
+      <c r="AR141">
+        <v>0.9</v>
+      </c>
+      <c r="AS141">
+        <v>0.71</v>
+      </c>
+      <c r="AT141">
         <v>1.07</v>
       </c>
-      <c r="AO141">
-        <v>1.19</v>
-      </c>
-      <c r="AP141">
-        <v>3</v>
-      </c>
-      <c r="AQ141">
-        <v>2.11</v>
-      </c>
-      <c r="AR141">
-        <v>0.5</v>
-      </c>
-      <c r="AS141">
-        <v>2.15</v>
-      </c>
-      <c r="AT141">
-        <v>0.71</v>
-      </c>
       <c r="AU141">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="AV141">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AW141">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="AX141">
         <v>0</v>
@@ -28140,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="BF141">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH141">
         <v>7</v>
       </c>
       <c r="BI141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ141">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK141">
         <v>9</v>
@@ -28163,7 +28163,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2794287</v>
+        <v>2794285</v>
       </c>
       <c r="C142" t="s">
         <v>63</v>
@@ -28178,172 +28178,172 @@
         <v>21</v>
       </c>
       <c r="G142" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O142" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="Q142">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S142">
+        <v>9</v>
+      </c>
+      <c r="T142">
+        <v>1.83</v>
+      </c>
+      <c r="U142">
+        <v>2.25</v>
+      </c>
+      <c r="V142">
+        <v>8.5</v>
+      </c>
+      <c r="W142">
+        <v>1.37</v>
+      </c>
+      <c r="X142">
+        <v>2.8</v>
+      </c>
+      <c r="Y142">
+        <v>2.65</v>
+      </c>
+      <c r="Z142">
+        <v>1.41</v>
+      </c>
+      <c r="AA142">
+        <v>6.75</v>
+      </c>
+      <c r="AB142">
+        <v>1.09</v>
+      </c>
+      <c r="AC142">
+        <v>1.3</v>
+      </c>
+      <c r="AD142">
+        <v>4.2</v>
+      </c>
+      <c r="AE142">
+        <v>9.5</v>
+      </c>
+      <c r="AF142">
+        <v>1.02</v>
+      </c>
+      <c r="AG142">
+        <v>8.6</v>
+      </c>
+      <c r="AH142">
+        <v>1.28</v>
+      </c>
+      <c r="AI142">
+        <v>3.4</v>
+      </c>
+      <c r="AJ142">
+        <v>1.77</v>
+      </c>
+      <c r="AK142">
+        <v>1.84</v>
+      </c>
+      <c r="AL142">
+        <v>2.63</v>
+      </c>
+      <c r="AM142">
+        <v>1.44</v>
+      </c>
+      <c r="AN142">
+        <v>1.07</v>
+      </c>
+      <c r="AO142">
+        <v>1.19</v>
+      </c>
+      <c r="AP142">
+        <v>3</v>
+      </c>
+      <c r="AQ142">
+        <v>2.11</v>
+      </c>
+      <c r="AR142">
+        <v>0.5</v>
+      </c>
+      <c r="AS142">
+        <v>2.15</v>
+      </c>
+      <c r="AT142">
+        <v>0.71</v>
+      </c>
+      <c r="AU142">
+        <v>1.62</v>
+      </c>
+      <c r="AV142">
+        <v>0.96</v>
+      </c>
+      <c r="AW142">
+        <v>2.58</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
         <v>7</v>
       </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>3.2</v>
-      </c>
-      <c r="W142">
-        <v>1.43</v>
-      </c>
-      <c r="X142">
-        <v>2.6</v>
-      </c>
-      <c r="Y142">
-        <v>2.87</v>
-      </c>
-      <c r="Z142">
-        <v>1.36</v>
-      </c>
-      <c r="AA142">
-        <v>7.5</v>
-      </c>
-      <c r="AB142">
-        <v>1.07</v>
-      </c>
-      <c r="AC142">
-        <v>3</v>
-      </c>
-      <c r="AD142">
-        <v>3</v>
-      </c>
-      <c r="AE142">
-        <v>2.25</v>
-      </c>
-      <c r="AF142">
-        <v>1.04</v>
-      </c>
-      <c r="AG142">
-        <v>7.5</v>
-      </c>
-      <c r="AH142">
-        <v>1.38</v>
-      </c>
-      <c r="AI142">
-        <v>2.9</v>
-      </c>
-      <c r="AJ142">
-        <v>1.92</v>
-      </c>
-      <c r="AK142">
-        <v>1.7</v>
-      </c>
-      <c r="AL142">
-        <v>2</v>
-      </c>
-      <c r="AM142">
-        <v>1.73</v>
-      </c>
-      <c r="AN142">
-        <v>1.75</v>
-      </c>
-      <c r="AO142">
-        <v>1.32</v>
-      </c>
-      <c r="AP142">
-        <v>1.26</v>
-      </c>
-      <c r="AQ142">
-        <v>0.9</v>
-      </c>
-      <c r="AR142">
-        <v>0.9</v>
-      </c>
-      <c r="AS142">
-        <v>0.71</v>
-      </c>
-      <c r="AT142">
-        <v>1.07</v>
-      </c>
-      <c r="AU142">
-        <v>1.32</v>
-      </c>
-      <c r="AV142">
-        <v>0.93</v>
-      </c>
-      <c r="AW142">
-        <v>2.25</v>
-      </c>
-      <c r="AX142">
-        <v>0</v>
-      </c>
-      <c r="AY142">
-        <v>0</v>
-      </c>
-      <c r="AZ142">
-        <v>0</v>
-      </c>
-      <c r="BA142">
-        <v>0</v>
-      </c>
-      <c r="BB142">
-        <v>0</v>
-      </c>
-      <c r="BC142">
-        <v>0</v>
-      </c>
-      <c r="BD142">
-        <v>0</v>
-      </c>
-      <c r="BE142">
-        <v>0</v>
-      </c>
-      <c r="BF142">
+      <c r="BG142">
         <v>5</v>
-      </c>
-      <c r="BG142">
-        <v>6</v>
       </c>
       <c r="BH142">
         <v>7</v>
       </c>
       <c r="BI142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ142">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK142">
         <v>9</v>
@@ -33320,7 +33320,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2794315</v>
+        <v>2794312</v>
       </c>
       <c r="C169" t="s">
         <v>63</v>
@@ -33335,10 +33335,10 @@
         <v>25</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H169" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -33350,160 +33350,160 @@
         <v>1</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N169">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O169" t="s">
         <v>180</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="Q169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>2.6</v>
+      </c>
+      <c r="U169">
+        <v>2.05</v>
+      </c>
+      <c r="V169">
+        <v>4.33</v>
+      </c>
+      <c r="W169">
+        <v>1.48</v>
+      </c>
+      <c r="X169">
+        <v>2.5</v>
+      </c>
+      <c r="Y169">
+        <v>3.15</v>
+      </c>
+      <c r="Z169">
+        <v>1.32</v>
+      </c>
+      <c r="AA169">
+        <v>7.25</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>2</v>
+      </c>
+      <c r="AD169">
+        <v>3.3</v>
+      </c>
+      <c r="AE169">
         <v>4</v>
-      </c>
-      <c r="S169">
-        <v>7</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
-      <c r="V169">
-        <v>3.6</v>
-      </c>
-      <c r="W169">
-        <v>1.44</v>
-      </c>
-      <c r="X169">
-        <v>2.62</v>
-      </c>
-      <c r="Y169">
-        <v>2.75</v>
-      </c>
-      <c r="Z169">
-        <v>1.4</v>
-      </c>
-      <c r="AA169">
-        <v>7</v>
-      </c>
-      <c r="AB169">
-        <v>1.08</v>
-      </c>
-      <c r="AC169">
-        <v>2.38</v>
-      </c>
-      <c r="AD169">
-        <v>3.5</v>
-      </c>
-      <c r="AE169">
-        <v>2.88</v>
       </c>
       <c r="AF169">
         <v>1.06</v>
       </c>
       <c r="AG169">
+        <v>9.65</v>
+      </c>
+      <c r="AH169">
+        <v>1.35</v>
+      </c>
+      <c r="AI169">
+        <v>2.97</v>
+      </c>
+      <c r="AJ169">
+        <v>2.1</v>
+      </c>
+      <c r="AK169">
+        <v>1.7</v>
+      </c>
+      <c r="AL169">
+        <v>1.91</v>
+      </c>
+      <c r="AM169">
+        <v>1.8</v>
+      </c>
+      <c r="AN169">
+        <v>1.28</v>
+      </c>
+      <c r="AO169">
+        <v>1.28</v>
+      </c>
+      <c r="AP169">
+        <v>1.7</v>
+      </c>
+      <c r="AQ169">
+        <v>2.17</v>
+      </c>
+      <c r="AR169">
+        <v>2.25</v>
+      </c>
+      <c r="AS169">
+        <v>2</v>
+      </c>
+      <c r="AT169">
+        <v>2.07</v>
+      </c>
+      <c r="AU169">
+        <v>1.9</v>
+      </c>
+      <c r="AV169">
+        <v>1.69</v>
+      </c>
+      <c r="AW169">
+        <v>3.59</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>7</v>
+      </c>
+      <c r="BG169">
+        <v>6</v>
+      </c>
+      <c r="BH169">
         <v>8</v>
       </c>
-      <c r="AH169">
-        <v>1.33</v>
-      </c>
-      <c r="AI169">
-        <v>3.25</v>
-      </c>
-      <c r="AJ169">
-        <v>2.15</v>
-      </c>
-      <c r="AK169">
-        <v>1.67</v>
-      </c>
-      <c r="AL169">
-        <v>2</v>
-      </c>
-      <c r="AM169">
-        <v>1.73</v>
-      </c>
-      <c r="AN169">
-        <v>1.33</v>
-      </c>
-      <c r="AO169">
-        <v>1.3</v>
-      </c>
-      <c r="AP169">
-        <v>1.67</v>
-      </c>
-      <c r="AQ169">
-        <v>0.5</v>
-      </c>
-      <c r="AR169">
-        <v>1.25</v>
-      </c>
-      <c r="AS169">
-        <v>0.86</v>
-      </c>
-      <c r="AT169">
-        <v>1.07</v>
-      </c>
-      <c r="AU169">
-        <v>1.38</v>
-      </c>
-      <c r="AV169">
-        <v>1.03</v>
-      </c>
-      <c r="AW169">
-        <v>2.41</v>
-      </c>
-      <c r="AX169">
-        <v>0</v>
-      </c>
-      <c r="AY169">
-        <v>0</v>
-      </c>
-      <c r="AZ169">
-        <v>0</v>
-      </c>
-      <c r="BA169">
-        <v>0</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
-      <c r="BC169">
-        <v>0</v>
-      </c>
-      <c r="BD169">
-        <v>0</v>
-      </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
-      <c r="BF169">
-        <v>6</v>
-      </c>
-      <c r="BG169">
-        <v>5</v>
-      </c>
-      <c r="BH169">
-        <v>3</v>
-      </c>
       <c r="BI169">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ169">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK169">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:63">
@@ -33511,7 +33511,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2794312</v>
+        <v>2794315</v>
       </c>
       <c r="C170" t="s">
         <v>63</v>
@@ -33526,10 +33526,10 @@
         <v>25</v>
       </c>
       <c r="G170" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H170" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -33541,118 +33541,118 @@
         <v>1</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O170" t="s">
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="Q170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T170">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="U170">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="W170">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X170">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Y170">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="Z170">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AA170">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="AB170">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC170">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AD170">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE170">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="AF170">
         <v>1.06</v>
       </c>
       <c r="AG170">
-        <v>9.65</v>
+        <v>8</v>
       </c>
       <c r="AH170">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AI170">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="AJ170">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK170">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AL170">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AM170">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AN170">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO170">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP170">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AQ170">
-        <v>2.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR170">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="AT170">
-        <v>2.07</v>
+        <v>1.07</v>
       </c>
       <c r="AU170">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="AV170">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="AW170">
-        <v>3.59</v>
+        <v>2.41</v>
       </c>
       <c r="AX170">
         <v>0</v>
@@ -33679,22 +33679,22 @@
         <v>0</v>
       </c>
       <c r="BF170">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH170">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BI170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BJ170">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK170">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -35842,7 +35842,7 @@
         <v>2</v>
       </c>
       <c r="O182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P182" t="s">
         <v>95</v>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.73</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU9" t="n">
         <v>1.45</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT12" t="n">
         <v>1.57</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT13" t="n">
         <v>0.73</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.53</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.21</v>
@@ -4151,7 +4151,7 @@
         <v>0.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU18" t="n">
         <v>1.66</v>
@@ -4354,7 +4354,7 @@
         <v>2.07</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU19" t="n">
         <v>1.42</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.93</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU21" t="n">
         <v>2.72</v>
@@ -5366,10 +5366,10 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>2.53</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU25" t="n">
         <v>1.73</v>
@@ -5775,7 +5775,7 @@
         <v>0.64</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT29" t="n">
         <v>0.73</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.52</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT32" t="n">
         <v>1.21</v>
@@ -7399,7 +7399,7 @@
         <v>0.71</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU34" t="n">
         <v>1.28</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU35" t="n">
         <v>1.27</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU36" t="n">
         <v>0.78</v>
@@ -8211,7 +8211,7 @@
         <v>1.53</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.38</v>
@@ -8617,7 +8617,7 @@
         <v>0.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU40" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.57</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>0.93</v>
@@ -9429,7 +9429,7 @@
         <v>0.86</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.35</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT45" t="n">
         <v>1.21</v>
@@ -9832,7 +9832,7 @@
         <v>0.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.23</v>
@@ -10038,7 +10038,7 @@
         <v>0.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.43</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU48" t="n">
         <v>2.04</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.5</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU50" t="n">
         <v>1.73</v>
@@ -10847,10 +10847,10 @@
         <v>1.75</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.86</v>
@@ -11659,10 +11659,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU55" t="n">
         <v>1.52</v>
@@ -12065,10 +12065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU57" t="n">
         <v>1.98</v>
@@ -12474,7 +12474,7 @@
         <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU60" t="n">
         <v>0.86</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT61" t="n">
         <v>1.07</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.36</v>
@@ -13286,7 +13286,7 @@
         <v>0.86</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.16</v>
@@ -13486,7 +13486,7 @@
         <v>1.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT64" t="n">
         <v>1.21</v>
@@ -13892,10 +13892,10 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>1.87</v>
@@ -14098,7 +14098,7 @@
         <v>0.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.36</v>
@@ -14298,10 +14298,10 @@
         <v>2.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU68" t="n">
         <v>1.89</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>1.57</v>
@@ -15316,7 +15316,7 @@
         <v>1.53</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU73" t="n">
         <v>1.48</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU74" t="n">
         <v>1.77</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT75" t="n">
         <v>1.07</v>
@@ -15922,10 +15922,10 @@
         <v>0.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>1.6</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT77" t="n">
         <v>1.23</v>
@@ -16331,7 +16331,7 @@
         <v>0.86</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU78" t="n">
         <v>1.17</v>
@@ -16734,10 +16734,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.52</v>
@@ -16937,7 +16937,7 @@
         <v>1.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.57</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT83" t="n">
         <v>1.21</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17752,7 +17752,7 @@
         <v>0.64</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU85" t="n">
         <v>1.45</v>
@@ -17952,7 +17952,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT86" t="n">
         <v>1.57</v>
@@ -18158,7 +18158,7 @@
         <v>0.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU87" t="n">
         <v>1.12</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU88" t="n">
         <v>1.88</v>
@@ -18564,7 +18564,7 @@
         <v>1.53</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.38</v>
@@ -18764,10 +18764,10 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU90" t="n">
         <v>1.85</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT91" t="n">
         <v>1.07</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU92" t="n">
         <v>2.02</v>
@@ -19576,10 +19576,10 @@
         <v>0.17</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU94" t="n">
         <v>1.79</v>
@@ -19779,7 +19779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT95" t="n">
         <v>1.57</v>
@@ -19982,10 +19982,10 @@
         <v>0.17</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU96" t="n">
         <v>1.91</v>
@@ -20185,10 +20185,10 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU97" t="n">
         <v>1.63</v>
@@ -20591,10 +20591,10 @@
         <v>1.14</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT100" t="n">
         <v>1.23</v>
@@ -21000,7 +21000,7 @@
         <v>0.64</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU101" t="n">
         <v>1.41</v>
@@ -21200,7 +21200,7 @@
         <v>0.57</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT102" t="n">
         <v>0.93</v>
@@ -21406,7 +21406,7 @@
         <v>0.71</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU103" t="n">
         <v>1.23</v>
@@ -21809,10 +21809,10 @@
         <v>2.14</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.56</v>
@@ -22418,7 +22418,7 @@
         <v>1.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT108" t="n">
         <v>1.57</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU109" t="n">
         <v>2.16</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU110" t="n">
         <v>1.98</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
         <v>1.07</v>
@@ -23230,10 +23230,10 @@
         <v>0.29</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU112" t="n">
         <v>1.51</v>
@@ -23433,7 +23433,7 @@
         <v>0.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT113" t="n">
         <v>0.93</v>
@@ -23636,10 +23636,10 @@
         <v>1.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.45</v>
@@ -23842,7 +23842,7 @@
         <v>2.07</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU115" t="n">
         <v>1.55</v>
@@ -24245,10 +24245,10 @@
         <v>2.25</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24651,10 +24651,10 @@
         <v>2.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU119" t="n">
         <v>1.51</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.88</v>
@@ -25260,7 +25260,7 @@
         <v>1.88</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT122" t="n">
         <v>1.57</v>
@@ -25666,10 +25666,10 @@
         <v>2.75</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU126" t="n">
         <v>2.08</v>
@@ -26275,10 +26275,10 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU127" t="n">
         <v>1.22</v>
@@ -26481,7 +26481,7 @@
         <v>0.71</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU128" t="n">
         <v>1.27</v>
@@ -26681,10 +26681,10 @@
         <v>2.44</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.44</v>
@@ -26884,10 +26884,10 @@
         <v>2.33</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT130" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU130" t="n">
         <v>1.97</v>
@@ -27087,7 +27087,7 @@
         <v>1.11</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
         <v>1.21</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT132" t="n">
         <v>1.23</v>
@@ -27496,7 +27496,7 @@
         <v>0.86</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU133" t="n">
         <v>1.31</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT135" t="n">
         <v>1.07</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
         <v>1.91</v>
@@ -28308,7 +28308,7 @@
         <v>2.07</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28914,7 +28914,7 @@
         <v>0.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT140" t="n">
         <v>0.73</v>
@@ -29320,10 +29320,10 @@
         <v>0.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU142" t="n">
         <v>1.62</v>
@@ -29523,10 +29523,10 @@
         <v>2.5</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU143" t="n">
         <v>1.98</v>
@@ -29929,10 +29929,10 @@
         <v>2.1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU145" t="n">
         <v>1.77</v>
@@ -30335,10 +30335,10 @@
         <v>2.1</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU147" t="n">
         <v>1.17</v>
@@ -30538,10 +30538,10 @@
         <v>0.2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU148" t="n">
         <v>1.45</v>
@@ -30741,7 +30741,7 @@
         <v>0.7</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT149" t="n">
         <v>0.93</v>
@@ -30947,7 +30947,7 @@
         <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -31350,7 +31350,7 @@
         <v>1.9</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT152" t="n">
         <v>1.57</v>
@@ -31759,7 +31759,7 @@
         <v>2</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>2</v>
@@ -32365,7 +32365,7 @@
         <v>1.09</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>1.07</v>
@@ -32568,10 +32568,10 @@
         <v>0.18</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU158" t="n">
         <v>1.92</v>
@@ -32771,10 +32771,10 @@
         <v>2.18</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU159" t="n">
         <v>1.71</v>
@@ -32977,7 +32977,7 @@
         <v>0.86</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU160" t="n">
         <v>1.37</v>
@@ -33177,10 +33177,10 @@
         <v>2.27</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33380,7 +33380,7 @@
         <v>0.82</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT162" t="n">
         <v>0.73</v>
@@ -33586,7 +33586,7 @@
         <v>2</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU163" t="n">
         <v>2.09</v>
@@ -33989,7 +33989,7 @@
         <v>2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT165" t="n">
         <v>1.57</v>
@@ -34195,7 +34195,7 @@
         <v>2.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34598,10 +34598,10 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -34804,7 +34804,7 @@
         <v>2</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU169" t="n">
         <v>1.9</v>
@@ -35207,7 +35207,7 @@
         <v>1.09</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT171" t="n">
         <v>1.23</v>
@@ -35410,10 +35410,10 @@
         <v>2.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT172" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AU172" t="n">
         <v>1.69</v>
@@ -35613,10 +35613,10 @@
         <v>0.25</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AU173" t="n">
         <v>1.13</v>
@@ -35819,7 +35819,7 @@
         <v>1.53</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU174" t="n">
         <v>1.29</v>
@@ -36019,7 +36019,7 @@
         <v>1.83</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
         <v>1.57</v>
@@ -36222,7 +36222,7 @@
         <v>0.83</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT176" t="n">
         <v>0.73</v>
@@ -36425,7 +36425,7 @@
         <v>0.83</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT177" t="n">
         <v>0.93</v>
@@ -36631,7 +36631,7 @@
         <v>0.71</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.3</v>
@@ -36831,7 +36831,7 @@
         <v>1.33</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT179" t="n">
         <v>1.57</v>
@@ -37037,7 +37037,7 @@
         <v>2.07</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU180" t="n">
         <v>1.71</v>
@@ -37443,7 +37443,7 @@
         <v>0.64</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AU182" t="n">
         <v>1.39</v>
@@ -37643,10 +37643,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AU183" t="n">
         <v>1.45</v>
@@ -37846,10 +37846,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AU184" t="n">
         <v>1.64</v>
@@ -38049,10 +38049,10 @@
         <v>2.27</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -38252,10 +38252,10 @@
         <v>2.04</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AU186" t="n">
         <v>1.91</v>
@@ -38455,10 +38455,10 @@
         <v>0.46</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AU187" t="n">
         <v>1.29</v>
@@ -38658,10 +38658,10 @@
         <v>0.62</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="AU188" t="n">
         <v>1.42</v>
@@ -38861,10 +38861,10 @@
         <v>1.76</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU189" t="n">
         <v>1.99</v>
@@ -39064,10 +39064,10 @@
         <v>1.11</v>
       </c>
       <c r="AS190" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AU190" t="n">
         <v>1.39</v>
@@ -39267,10 +39267,10 @@
         <v>1.89</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AU191" t="n">
         <v>1.73</v>
@@ -39470,10 +39470,10 @@
         <v>0.78</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -39673,10 +39673,10 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39876,10 +39876,10 @@
         <v>1.35</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU194" t="n">
         <v>1.34</v>
@@ -40079,10 +40079,10 @@
         <v>1.33</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AU195" t="n">
         <v>1.38</v>
@@ -40282,10 +40282,10 @@
         <v>2.11</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AU196" t="n">
         <v>2.05</v>
@@ -40336,6 +40336,1427 @@
         <v>11</v>
       </c>
       <c r="BK196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5700881</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45016.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Anorthosis</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Nea Salamis</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>2</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3</v>
+      </c>
+      <c r="L197" t="n">
+        <v>4</v>
+      </c>
+      <c r="M197" t="n">
+        <v>4</v>
+      </c>
+      <c r="N197" t="n">
+        <v>8</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['12', '22', '58', '61']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['6', '74', '77', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>6</v>
+      </c>
+      <c r="S197" t="n">
+        <v>7</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5700882</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Karmiotissa</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['11', '67']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>4</v>
+      </c>
+      <c r="R198" t="n">
+        <v>8</v>
+      </c>
+      <c r="S198" t="n">
+        <v>12</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5700883</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>AEL</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Akritas</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>4</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['61', '63']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['23', '72']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>8</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>9</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5700869</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45018.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Omonia Nicosia</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Paphos</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['55', '83']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>4</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>7</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5700870</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45018.54166666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Apollon</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>5</v>
+      </c>
+      <c r="S201" t="n">
+        <v>11</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5700871</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45019.54166666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>AEK Larnaca</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>APOEL</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="n">
+        <v>3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['10', '88']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['11', '37']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5700884</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45019.54166666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Enosis</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Doxa</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['14', '26']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>8</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK203" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.93</v>
@@ -1918,7 +1918,7 @@
         <v>2.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
         <v>0.27</v>
@@ -3745,7 +3745,7 @@
         <v>0.79</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.6</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.85</v>
@@ -5369,7 +5369,7 @@
         <v>1.53</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU24" t="n">
         <v>2.53</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT27" t="n">
         <v>1.57</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT34" t="n">
         <v>2.13</v>
@@ -8008,7 +8008,7 @@
         <v>2.07</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.32</v>
@@ -8208,10 +8208,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.38</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT47" t="n">
         <v>2.2</v>
@@ -10850,7 +10850,7 @@
         <v>1.53</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.86</v>
@@ -12268,7 +12268,7 @@
         <v>1.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT58" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
         <v>1.6</v>
@@ -12880,7 +12880,7 @@
         <v>2.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>2.38</v>
@@ -14098,7 +14098,7 @@
         <v>0.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>1.36</v>
@@ -14704,7 +14704,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT70" t="n">
         <v>1.57</v>
@@ -15313,7 +15313,7 @@
         <v>3</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT73" t="n">
         <v>2.13</v>
@@ -15722,7 +15722,7 @@
         <v>0.79</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.21</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT79" t="n">
         <v>0.73</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU80" t="n">
         <v>1.52</v>
@@ -18561,7 +18561,7 @@
         <v>3</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT89" t="n">
         <v>2.2</v>
@@ -18970,7 +18970,7 @@
         <v>2.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.93</v>
@@ -20388,10 +20388,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU99" t="n">
         <v>1.38</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1.36</v>
@@ -22012,7 +22012,7 @@
         <v>1.71</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT106" t="n">
         <v>1.57</v>
@@ -23030,7 +23030,7 @@
         <v>1.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.8</v>
@@ -24448,7 +24448,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1.21</v>
@@ -24854,7 +24854,7 @@
         <v>0.75</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT120" t="n">
         <v>0.73</v>
@@ -25060,7 +25060,7 @@
         <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.88</v>
@@ -25872,7 +25872,7 @@
         <v>0.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.38</v>
@@ -26478,7 +26478,7 @@
         <v>0.22</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT128" t="n">
         <v>0.87</v>
@@ -27902,7 +27902,7 @@
         <v>1.53</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.47</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU136" t="n">
         <v>1.91</v>
@@ -28508,7 +28508,7 @@
         <v>0.78</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT138" t="n">
         <v>0.93</v>
@@ -29117,10 +29117,10 @@
         <v>0.9</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.32</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT146" t="n">
         <v>1.23</v>
@@ -31759,7 +31759,7 @@
         <v>2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU154" t="n">
         <v>2</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT156" t="n">
         <v>1.21</v>
@@ -32368,7 +32368,7 @@
         <v>2</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.66</v>
@@ -33786,7 +33786,7 @@
         <v>1.18</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT164" t="n">
         <v>1.57</v>
@@ -34195,7 +34195,7 @@
         <v>2.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -35007,7 +35007,7 @@
         <v>0.86</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.38</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT174" t="n">
         <v>0.87</v>
@@ -36628,10 +36628,10 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AU178" t="n">
         <v>1.3</v>
@@ -37643,7 +37643,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
         <v>0.76</v>
@@ -37849,7 +37849,7 @@
         <v>1.38</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.64</v>
@@ -38455,10 +38455,10 @@
         <v>0.46</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AU187" t="n">
         <v>1.29</v>
@@ -39064,10 +39064,10 @@
         <v>1.11</v>
       </c>
       <c r="AS190" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.39</v>
@@ -39470,7 +39470,7 @@
         <v>0.78</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AT192" t="n">
         <v>0.76</v>
@@ -39876,7 +39876,7 @@
         <v>1.35</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT194" t="n">
         <v>1.39</v>
@@ -40488,7 +40488,7 @@
         <v>1.38</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AU197" t="n">
         <v>1.65</v>
@@ -40688,7 +40688,7 @@
         <v>0.68</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AT198" t="n">
         <v>0.76</v>
@@ -40894,7 +40894,7 @@
         <v>1.39</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AU199" t="n">
         <v>1.45</v>
@@ -41706,7 +41706,7 @@
         <v>0.76</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AU203" t="n">
         <v>1.2</v>
@@ -41758,6 +41758,412 @@
       </c>
       <c r="BK203" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5700885</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45023.45833333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Nea Salamis</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Karmiotissa</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5700886</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Akritas</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Doxa</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['69', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>5</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.06</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.23</v>
@@ -5366,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
         <v>1.13</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT26" t="n">
         <v>2.2</v>
@@ -6384,7 +6384,7 @@
         <v>2.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.67</v>
@@ -6993,7 +6993,7 @@
         <v>2.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>2.24</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>2.06</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.27</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT43" t="n">
         <v>0.93</v>
@@ -9632,7 +9632,7 @@
         <v>0.79</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.57</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>2.03</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
         <v>1.36</v>
@@ -13489,7 +13489,7 @@
         <v>2.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.81</v>
@@ -13692,7 +13692,7 @@
         <v>2.07</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -14095,7 +14095,7 @@
         <v>1.4</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT67" t="n">
         <v>1.13</v>
@@ -14298,7 +14298,7 @@
         <v>2.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
         <v>1.6</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.98</v>
@@ -16534,7 +16534,7 @@
         <v>0.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU79" t="n">
         <v>1.18</v>
@@ -17343,10 +17343,10 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU83" t="n">
         <v>1.7</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.36</v>
@@ -20185,7 +20185,7 @@
         <v>3</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT97" t="n">
         <v>2.13</v>
@@ -20997,7 +20997,7 @@
         <v>2.71</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT101" t="n">
         <v>2.13</v>
@@ -21609,7 +21609,7 @@
         <v>2.07</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.57</v>
@@ -22218,7 +22218,7 @@
         <v>0.86</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU107" t="n">
         <v>1.25</v>
@@ -23230,7 +23230,7 @@
         <v>0.29</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT112" t="n">
         <v>0.87</v>
@@ -24451,7 +24451,7 @@
         <v>0.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.26</v>
@@ -24857,7 +24857,7 @@
         <v>1.63</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU120" t="n">
         <v>1.34</v>
@@ -25666,7 +25666,7 @@
         <v>2.75</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT124" t="n">
         <v>2.2</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.52</v>
@@ -27696,7 +27696,7 @@
         <v>1.78</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT134" t="n">
         <v>1.57</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         <v>1.53</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29729,7 +29729,7 @@
         <v>0.86</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU144" t="n">
         <v>1.34</v>
@@ -30538,7 +30538,7 @@
         <v>0.2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT148" t="n">
         <v>0.27</v>
@@ -31553,10 +31553,10 @@
         <v>0.6</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU153" t="n">
         <v>1.32</v>
@@ -32165,7 +32165,7 @@
         <v>1.63</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU156" t="n">
         <v>1.29</v>
@@ -33383,7 +33383,7 @@
         <v>1</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33989,7 +33989,7 @@
         <v>2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT165" t="n">
         <v>1.57</v>
@@ -34395,7 +34395,7 @@
         <v>0.64</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT167" t="n">
         <v>0.93</v>
@@ -36225,7 +36225,7 @@
         <v>2.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU176" t="n">
         <v>2.01</v>
@@ -36831,7 +36831,7 @@
         <v>1.33</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AT179" t="n">
         <v>1.57</v>
@@ -37240,7 +37240,7 @@
         <v>2</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU181" t="n">
         <v>2.03</v>
@@ -37440,7 +37440,7 @@
         <v>1.83</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT182" t="n">
         <v>1.6</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AU183" t="n">
         <v>1.45</v>
@@ -37846,7 +37846,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38658,10 +38658,10 @@
         <v>0.62</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AU188" t="n">
         <v>1.42</v>
@@ -39473,7 +39473,7 @@
         <v>0.47</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -39879,7 +39879,7 @@
         <v>1.5</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AU194" t="n">
         <v>1.34</v>
@@ -40079,10 +40079,10 @@
         <v>1.33</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AU195" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>1.46</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AT197" t="n">
         <v>1.5</v>
@@ -40691,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AU198" t="n">
         <v>1.45</v>
@@ -40891,7 +40891,7 @@
         <v>0.46</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT199" t="n">
         <v>0.47</v>
@@ -41703,7 +41703,7 @@
         <v>0.86</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AT203" t="n">
         <v>1</v>
@@ -42164,6 +42164,412 @@
       </c>
       <c r="BK205" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5700887</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Enosis</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>7</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5700888</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45025.54166666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>AEL</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Anorthosis</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['40', '56']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>9</v>
+      </c>
+      <c r="S207" t="n">
+        <v>14</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Cyprus First Division_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT5" t="n">
         <v>1.6</v>
@@ -2730,7 +2730,7 @@
         <v>0.86</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT19" t="n">
         <v>2.13</v>
@@ -5978,7 +5978,7 @@
         <v>1.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU27" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT33" t="n">
         <v>1.23</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1.53</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>2.12</v>
@@ -11053,7 +11053,7 @@
         <v>0.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.5</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT54" t="n">
         <v>1.57</v>
@@ -13689,7 +13689,7 @@
         <v>0.6</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT65" t="n">
         <v>0.75</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.59</v>
@@ -16940,7 +16940,7 @@
         <v>2.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU81" t="n">
         <v>2.16</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT82" t="n">
         <v>0.93</v>
@@ -19782,7 +19782,7 @@
         <v>0.79</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.17</v>
@@ -21606,7 +21606,7 @@
         <v>1.43</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT104" t="n">
         <v>1.33</v>
@@ -22421,7 +22421,7 @@
         <v>2.13</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.99</v>
@@ -23839,7 +23839,7 @@
         <v>0.25</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT115" t="n">
         <v>0.87</v>
@@ -25466,7 +25466,7 @@
         <v>2</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>1.99</v>
@@ -28305,7 +28305,7 @@
         <v>0.22</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT137" t="n">
         <v>0.27</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU139" t="n">
         <v>2.06</v>
@@ -31147,10 +31147,10 @@
         <v>1.3</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.63</v>
@@ -33789,7 +33789,7 @@
         <v>0.67</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU164" t="n">
         <v>1.33</v>
@@ -34192,7 +34192,7 @@
         <v>0.73</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT166" t="n">
         <v>1.13</v>
@@ -36834,7 +36834,7 @@
         <v>1.44</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37034,7 +37034,7 @@
         <v>1.5</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT180" t="n">
         <v>1.36</v>
@@ -38052,7 +38052,7 @@
         <v>1.55</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -38864,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AU189" t="n">
         <v>1.99</v>
@@ -39267,7 +39267,7 @@
         <v>1.89</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT191" t="n">
         <v>1.79</v>
@@ -39673,7 +39673,7 @@
         <v>1.56</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AT193" t="n">
         <v>1.55</v>
@@ -41297,7 +41297,7 @@
         <v>2.04</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AT201" t="n">
         <v>2.07</v>
@@ -41503,7 +41503,7 @@
         <v>2</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.96</v>
@@ -42570,6 +42570,209 @@
       </c>
       <c r="BK207" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5700872</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cyprus First Division</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>APOEL</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Apollon</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['23', '85']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>6</v>
+      </c>
+      <c r="R208" t="n">
+        <v>6</v>
+      </c>
+      <c r="S208" t="n">
+        <v>12</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
